--- a/challenge.xlsx
+++ b/challenge.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\UiPath\RPAChallenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leozin\Documents\BWA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C16901-5AD3-411E-AF64-4186EBD92934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Last_Name" localSheetId="0">Sheet1!$B$1</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -22,9 +26,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name </t>
   </si>
   <si>
     <t>Company Name</t>
@@ -206,6 +207,9 @@
   <si>
     <t>lpalmer@timepath.co.uk</t>
   </si>
+  <si>
+    <t>Last Name</t>
+  </si>
 </sst>
 </file>
 
@@ -316,7 +320,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -616,287 +620,287 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="7.6640625" customWidth="1"/>
+    <col min="9" max="26" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="4">
         <v>40716543298</v>
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="4">
         <v>40791345621</v>
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="4">
         <v>40735416854</v>
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="4">
         <v>40733652145</v>
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="4">
         <v>40799885412</v>
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="4">
         <v>40733154268</v>
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="4">
         <v>40712462257</v>
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="4">
         <v>40731254562</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="4">
         <v>40741785214</v>
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="4">
         <v>40731653845</v>
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -906,7 +910,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -916,7 +920,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -926,7 +930,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -936,7 +940,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -946,7 +950,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -956,7 +960,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -966,7 +970,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -976,7 +980,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -986,7 +990,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -996,7 +1000,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1006,7 +1010,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1016,7 +1020,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1026,7 +1030,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1036,7 +1040,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1046,7 +1050,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1056,7 +1060,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1066,7 +1070,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1076,7 +1080,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1086,7 +1090,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1096,7 +1100,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1106,7 +1110,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1116,7 +1120,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1126,7 +1130,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1136,7 +1140,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1146,7 +1150,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1156,7 +1160,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1166,7 +1170,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1176,7 +1180,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1186,7 +1190,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1196,7 +1200,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1206,7 +1210,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1216,7 +1220,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1226,7 +1230,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1236,7 +1240,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1246,7 +1250,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1256,7 +1260,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1266,7 +1270,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1276,7 +1280,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1286,7 +1290,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1296,7 +1300,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1306,7 +1310,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1316,7 +1320,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1326,7 +1330,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1336,7 +1340,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1346,7 +1350,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1356,7 +1360,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1366,7 +1370,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1376,7 +1380,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -1386,7 +1390,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1396,7 +1400,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1406,7 +1410,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1416,7 +1420,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1426,7 +1430,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -1436,7 +1440,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1446,7 +1450,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1456,7 +1460,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1466,7 +1470,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1476,7 +1480,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -1486,7 +1490,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1496,7 +1500,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -1506,7 +1510,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -1516,7 +1520,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -1526,7 +1530,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -1536,7 +1540,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -1546,7 +1550,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1556,7 +1560,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -1566,7 +1570,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -1576,7 +1580,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -1586,7 +1590,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -1596,7 +1600,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -1606,7 +1610,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -1616,7 +1620,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -1626,7 +1630,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -1636,7 +1640,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -1646,7 +1650,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -1656,7 +1660,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -1666,7 +1670,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -1676,7 +1680,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -1686,7 +1690,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -1696,7 +1700,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -1706,7 +1710,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -1716,7 +1720,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -1726,7 +1730,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -1736,7 +1740,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -1746,7 +1750,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -1756,7 +1760,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -1766,7 +1770,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -1776,7 +1780,7 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -1786,7 +1790,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -1796,7 +1800,7 @@
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -1806,7 +1810,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -1816,7 +1820,7 @@
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -1826,7 +1830,7 @@
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -1836,7 +1840,7 @@
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -1846,7 +1850,7 @@
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -1856,7 +1860,7 @@
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -1866,7 +1870,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -1876,7 +1880,7 @@
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -1886,7 +1890,7 @@
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -1896,7 +1900,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -1906,7 +1910,7 @@
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -1916,7 +1920,7 @@
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -1926,7 +1930,7 @@
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -1936,7 +1940,7 @@
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -1946,7 +1950,7 @@
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -1956,7 +1960,7 @@
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -1966,7 +1970,7 @@
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -1976,7 +1980,7 @@
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -1986,7 +1990,7 @@
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -1996,7 +2000,7 @@
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2006,7 +2010,7 @@
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2016,7 +2020,7 @@
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2026,7 +2030,7 @@
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2036,7 +2040,7 @@
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2046,7 +2050,7 @@
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2056,7 +2060,7 @@
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2066,7 +2070,7 @@
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -2076,7 +2080,7 @@
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -2086,7 +2090,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -2096,7 +2100,7 @@
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -2106,7 +2110,7 @@
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -2116,7 +2120,7 @@
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -2126,7 +2130,7 @@
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -2136,7 +2140,7 @@
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -2146,7 +2150,7 @@
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -2156,7 +2160,7 @@
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -2166,7 +2170,7 @@
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -2176,7 +2180,7 @@
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -2186,7 +2190,7 @@
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -2196,7 +2200,7 @@
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -2206,7 +2210,7 @@
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -2216,7 +2220,7 @@
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -2226,7 +2230,7 @@
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -2236,7 +2240,7 @@
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -2246,7 +2250,7 @@
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -2256,7 +2260,7 @@
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -2266,7 +2270,7 @@
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -2276,7 +2280,7 @@
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -2286,7 +2290,7 @@
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -2296,7 +2300,7 @@
       <c r="G151" s="4"/>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -2306,7 +2310,7 @@
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -2316,7 +2320,7 @@
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -2326,7 +2330,7 @@
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -2336,7 +2340,7 @@
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -2346,7 +2350,7 @@
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -2356,7 +2360,7 @@
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -2366,7 +2370,7 @@
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -2376,7 +2380,7 @@
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
     </row>
-    <row r="160" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -2386,7 +2390,7 @@
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
     </row>
-    <row r="161" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -2396,7 +2400,7 @@
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
     </row>
-    <row r="162" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -2406,7 +2410,7 @@
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -2416,7 +2420,7 @@
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -2426,7 +2430,7 @@
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -2436,7 +2440,7 @@
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
     </row>
-    <row r="166" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -2446,7 +2450,7 @@
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
     </row>
-    <row r="167" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -2456,7 +2460,7 @@
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
     </row>
-    <row r="168" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -2466,7 +2470,7 @@
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
     </row>
-    <row r="169" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -2476,7 +2480,7 @@
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
     </row>
-    <row r="170" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -2486,7 +2490,7 @@
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
     </row>
-    <row r="171" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -2496,7 +2500,7 @@
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
     </row>
-    <row r="172" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -2506,7 +2510,7 @@
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
     </row>
-    <row r="173" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -2516,7 +2520,7 @@
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
     </row>
-    <row r="174" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -2526,7 +2530,7 @@
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -2536,7 +2540,7 @@
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -2546,7 +2550,7 @@
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -2556,7 +2560,7 @@
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -2566,7 +2570,7 @@
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -2576,7 +2580,7 @@
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
     </row>
-    <row r="180" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -2586,7 +2590,7 @@
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
     </row>
-    <row r="181" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -2596,7 +2600,7 @@
       <c r="G181" s="4"/>
       <c r="H181" s="4"/>
     </row>
-    <row r="182" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -2606,7 +2610,7 @@
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
     </row>
-    <row r="183" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -2616,7 +2620,7 @@
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
     </row>
-    <row r="184" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -2626,7 +2630,7 @@
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
     </row>
-    <row r="185" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -2636,7 +2640,7 @@
       <c r="G185" s="4"/>
       <c r="H185" s="4"/>
     </row>
-    <row r="186" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -2646,7 +2650,7 @@
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
     </row>
-    <row r="187" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -2656,7 +2660,7 @@
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
     </row>
-    <row r="188" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -2666,7 +2670,7 @@
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -2676,7 +2680,7 @@
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
     </row>
-    <row r="190" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -2686,7 +2690,7 @@
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
     </row>
-    <row r="191" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -2696,7 +2700,7 @@
       <c r="G191" s="4"/>
       <c r="H191" s="4"/>
     </row>
-    <row r="192" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -2706,7 +2710,7 @@
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
     </row>
-    <row r="193" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -2716,7 +2720,7 @@
       <c r="G193" s="4"/>
       <c r="H193" s="4"/>
     </row>
-    <row r="194" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -2726,7 +2730,7 @@
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
     </row>
-    <row r="195" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -2736,7 +2740,7 @@
       <c r="G195" s="4"/>
       <c r="H195" s="4"/>
     </row>
-    <row r="196" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -2746,7 +2750,7 @@
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
     </row>
-    <row r="197" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -2756,7 +2760,7 @@
       <c r="G197" s="4"/>
       <c r="H197" s="4"/>
     </row>
-    <row r="198" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -2766,7 +2770,7 @@
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
     </row>
-    <row r="199" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -2776,7 +2780,7 @@
       <c r="G199" s="4"/>
       <c r="H199" s="4"/>
     </row>
-    <row r="200" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -2786,7 +2790,7 @@
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
     </row>
-    <row r="201" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -2796,7 +2800,7 @@
       <c r="G201" s="4"/>
       <c r="H201" s="4"/>
     </row>
-    <row r="202" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -2806,7 +2810,7 @@
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
     </row>
-    <row r="203" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -2816,7 +2820,7 @@
       <c r="G203" s="4"/>
       <c r="H203" s="4"/>
     </row>
-    <row r="204" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -2826,7 +2830,7 @@
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
     </row>
-    <row r="205" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -2836,7 +2840,7 @@
       <c r="G205" s="4"/>
       <c r="H205" s="4"/>
     </row>
-    <row r="206" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -2846,7 +2850,7 @@
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
     </row>
-    <row r="207" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -2856,7 +2860,7 @@
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
     </row>
-    <row r="208" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -2866,7 +2870,7 @@
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
     </row>
-    <row r="209" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -2876,7 +2880,7 @@
       <c r="G209" s="4"/>
       <c r="H209" s="4"/>
     </row>
-    <row r="210" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -2886,7 +2890,7 @@
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
     </row>
-    <row r="211" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -2896,7 +2900,7 @@
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
     </row>
-    <row r="212" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -2906,7 +2910,7 @@
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
     </row>
-    <row r="213" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -2916,7 +2920,7 @@
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
     </row>
-    <row r="214" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -2926,7 +2930,7 @@
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
     </row>
-    <row r="215" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -2936,7 +2940,7 @@
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
     </row>
-    <row r="216" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -2946,7 +2950,7 @@
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
     </row>
-    <row r="217" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -2956,7 +2960,7 @@
       <c r="G217" s="4"/>
       <c r="H217" s="4"/>
     </row>
-    <row r="218" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -2966,7 +2970,7 @@
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
     </row>
-    <row r="219" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -2976,7 +2980,7 @@
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
     </row>
-    <row r="220" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -2986,7 +2990,7 @@
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
     </row>
-    <row r="221" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -2996,7 +3000,7 @@
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
     </row>
-    <row r="222" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -3006,7 +3010,7 @@
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
     </row>
-    <row r="223" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -3016,7 +3020,7 @@
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
     </row>
-    <row r="224" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -3026,7 +3030,7 @@
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
     </row>
-    <row r="225" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -3036,7 +3040,7 @@
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
     </row>
-    <row r="226" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -3046,7 +3050,7 @@
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
     </row>
-    <row r="227" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -3056,7 +3060,7 @@
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
     </row>
-    <row r="228" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -3066,7 +3070,7 @@
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
     </row>
-    <row r="229" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -3076,7 +3080,7 @@
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
     </row>
-    <row r="230" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -3086,7 +3090,7 @@
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
     </row>
-    <row r="231" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -3096,7 +3100,7 @@
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
     </row>
-    <row r="232" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -3106,7 +3110,7 @@
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
     </row>
-    <row r="233" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -3116,7 +3120,7 @@
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
     </row>
-    <row r="234" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -3126,7 +3130,7 @@
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
     </row>
-    <row r="235" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -3136,7 +3140,7 @@
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
     </row>
-    <row r="236" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -3146,7 +3150,7 @@
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
     </row>
-    <row r="237" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -3156,7 +3160,7 @@
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
     </row>
-    <row r="238" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -3166,7 +3170,7 @@
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
     </row>
-    <row r="239" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -3176,7 +3180,7 @@
       <c r="G239" s="4"/>
       <c r="H239" s="4"/>
     </row>
-    <row r="240" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -3186,7 +3190,7 @@
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
     </row>
-    <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -3196,7 +3200,7 @@
       <c r="G241" s="4"/>
       <c r="H241" s="4"/>
     </row>
-    <row r="242" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -3206,7 +3210,7 @@
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
     </row>
-    <row r="243" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -3216,7 +3220,7 @@
       <c r="G243" s="4"/>
       <c r="H243" s="4"/>
     </row>
-    <row r="244" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -3226,7 +3230,7 @@
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
     </row>
-    <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -3236,7 +3240,7 @@
       <c r="G245" s="4"/>
       <c r="H245" s="4"/>
     </row>
-    <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -3246,7 +3250,7 @@
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
     </row>
-    <row r="247" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -3256,7 +3260,7 @@
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
     </row>
-    <row r="248" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -3266,7 +3270,7 @@
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
     </row>
-    <row r="249" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -3276,7 +3280,7 @@
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
     </row>
-    <row r="250" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -3286,7 +3290,7 @@
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
     </row>
-    <row r="251" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -3296,7 +3300,7 @@
       <c r="G251" s="4"/>
       <c r="H251" s="4"/>
     </row>
-    <row r="252" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -3306,7 +3310,7 @@
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
     </row>
-    <row r="253" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -3316,7 +3320,7 @@
       <c r="G253" s="4"/>
       <c r="H253" s="4"/>
     </row>
-    <row r="254" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -3326,7 +3330,7 @@
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
     </row>
-    <row r="255" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -3336,7 +3340,7 @@
       <c r="G255" s="4"/>
       <c r="H255" s="4"/>
     </row>
-    <row r="256" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -3346,7 +3350,7 @@
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
     </row>
-    <row r="257" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -3356,7 +3360,7 @@
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
     </row>
-    <row r="258" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -3366,7 +3370,7 @@
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
     </row>
-    <row r="259" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -3376,7 +3380,7 @@
       <c r="G259" s="4"/>
       <c r="H259" s="4"/>
     </row>
-    <row r="260" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -3386,7 +3390,7 @@
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
     </row>
-    <row r="261" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -3396,7 +3400,7 @@
       <c r="G261" s="4"/>
       <c r="H261" s="4"/>
     </row>
-    <row r="262" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -3406,7 +3410,7 @@
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
     </row>
-    <row r="263" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -3416,7 +3420,7 @@
       <c r="G263" s="4"/>
       <c r="H263" s="4"/>
     </row>
-    <row r="264" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -3426,7 +3430,7 @@
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
     </row>
-    <row r="265" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -3436,7 +3440,7 @@
       <c r="G265" s="4"/>
       <c r="H265" s="4"/>
     </row>
-    <row r="266" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -3446,7 +3450,7 @@
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
     </row>
-    <row r="267" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -3456,7 +3460,7 @@
       <c r="G267" s="4"/>
       <c r="H267" s="4"/>
     </row>
-    <row r="268" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -3466,7 +3470,7 @@
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
     </row>
-    <row r="269" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -3476,7 +3480,7 @@
       <c r="G269" s="4"/>
       <c r="H269" s="4"/>
     </row>
-    <row r="270" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -3486,7 +3490,7 @@
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
     </row>
-    <row r="271" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -3496,7 +3500,7 @@
       <c r="G271" s="4"/>
       <c r="H271" s="4"/>
     </row>
-    <row r="272" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -3506,7 +3510,7 @@
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
     </row>
-    <row r="273" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -3516,7 +3520,7 @@
       <c r="G273" s="4"/>
       <c r="H273" s="4"/>
     </row>
-    <row r="274" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -3526,7 +3530,7 @@
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
     </row>
-    <row r="275" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -3536,7 +3540,7 @@
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
     </row>
-    <row r="276" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -3546,7 +3550,7 @@
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
     </row>
-    <row r="277" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -3556,7 +3560,7 @@
       <c r="G277" s="4"/>
       <c r="H277" s="4"/>
     </row>
-    <row r="278" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -3566,7 +3570,7 @@
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
     </row>
-    <row r="279" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -3576,7 +3580,7 @@
       <c r="G279" s="4"/>
       <c r="H279" s="4"/>
     </row>
-    <row r="280" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -3586,7 +3590,7 @@
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
     </row>
-    <row r="281" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -3596,7 +3600,7 @@
       <c r="G281" s="4"/>
       <c r="H281" s="4"/>
     </row>
-    <row r="282" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -3606,7 +3610,7 @@
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
     </row>
-    <row r="283" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -3616,7 +3620,7 @@
       <c r="G283" s="4"/>
       <c r="H283" s="4"/>
     </row>
-    <row r="284" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -3626,7 +3630,7 @@
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
     </row>
-    <row r="285" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -3636,7 +3640,7 @@
       <c r="G285" s="4"/>
       <c r="H285" s="4"/>
     </row>
-    <row r="286" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -3646,7 +3650,7 @@
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
     </row>
-    <row r="287" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -3656,7 +3660,7 @@
       <c r="G287" s="4"/>
       <c r="H287" s="4"/>
     </row>
-    <row r="288" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -3666,7 +3670,7 @@
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
     </row>
-    <row r="289" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -3676,7 +3680,7 @@
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
     </row>
-    <row r="290" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -3686,7 +3690,7 @@
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
     </row>
-    <row r="291" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -3696,7 +3700,7 @@
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
     </row>
-    <row r="292" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -3706,7 +3710,7 @@
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
     </row>
-    <row r="293" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -3716,7 +3720,7 @@
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
     </row>
-    <row r="294" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -3726,7 +3730,7 @@
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
     </row>
-    <row r="295" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -3736,7 +3740,7 @@
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
     </row>
-    <row r="296" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -3746,7 +3750,7 @@
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
     </row>
-    <row r="297" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -3756,7 +3760,7 @@
       <c r="G297" s="4"/>
       <c r="H297" s="4"/>
     </row>
-    <row r="298" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -3766,7 +3770,7 @@
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
     </row>
-    <row r="299" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -3776,7 +3780,7 @@
       <c r="G299" s="4"/>
       <c r="H299" s="4"/>
     </row>
-    <row r="300" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -3786,7 +3790,7 @@
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
     </row>
-    <row r="301" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -3796,7 +3800,7 @@
       <c r="G301" s="4"/>
       <c r="H301" s="4"/>
     </row>
-    <row r="302" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -3806,7 +3810,7 @@
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
     </row>
-    <row r="303" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -3816,7 +3820,7 @@
       <c r="G303" s="4"/>
       <c r="H303" s="4"/>
     </row>
-    <row r="304" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -3826,7 +3830,7 @@
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
     </row>
-    <row r="305" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -3836,7 +3840,7 @@
       <c r="G305" s="4"/>
       <c r="H305" s="4"/>
     </row>
-    <row r="306" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -3846,7 +3850,7 @@
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
     </row>
-    <row r="307" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -3856,7 +3860,7 @@
       <c r="G307" s="4"/>
       <c r="H307" s="4"/>
     </row>
-    <row r="308" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -3866,7 +3870,7 @@
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
     </row>
-    <row r="309" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -3876,7 +3880,7 @@
       <c r="G309" s="4"/>
       <c r="H309" s="4"/>
     </row>
-    <row r="310" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -3886,7 +3890,7 @@
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
     </row>
-    <row r="311" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -3896,7 +3900,7 @@
       <c r="G311" s="4"/>
       <c r="H311" s="4"/>
     </row>
-    <row r="312" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -3906,7 +3910,7 @@
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
     </row>
-    <row r="313" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -3916,7 +3920,7 @@
       <c r="G313" s="4"/>
       <c r="H313" s="4"/>
     </row>
-    <row r="314" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -3926,7 +3930,7 @@
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
     </row>
-    <row r="315" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -3936,7 +3940,7 @@
       <c r="G315" s="4"/>
       <c r="H315" s="4"/>
     </row>
-    <row r="316" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -3946,7 +3950,7 @@
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
     </row>
-    <row r="317" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -3956,7 +3960,7 @@
       <c r="G317" s="4"/>
       <c r="H317" s="4"/>
     </row>
-    <row r="318" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -3966,7 +3970,7 @@
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
     </row>
-    <row r="319" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -3976,7 +3980,7 @@
       <c r="G319" s="4"/>
       <c r="H319" s="4"/>
     </row>
-    <row r="320" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -3986,7 +3990,7 @@
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
     </row>
-    <row r="321" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -3996,7 +4000,7 @@
       <c r="G321" s="4"/>
       <c r="H321" s="4"/>
     </row>
-    <row r="322" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -4006,7 +4010,7 @@
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
     </row>
-    <row r="323" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -4016,7 +4020,7 @@
       <c r="G323" s="4"/>
       <c r="H323" s="4"/>
     </row>
-    <row r="324" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -4026,7 +4030,7 @@
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
     </row>
-    <row r="325" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="4"/>
@@ -4036,7 +4040,7 @@
       <c r="G325" s="4"/>
       <c r="H325" s="4"/>
     </row>
-    <row r="326" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -4046,7 +4050,7 @@
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
     </row>
-    <row r="327" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="4"/>
@@ -4056,7 +4060,7 @@
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
     </row>
-    <row r="328" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="4"/>
@@ -4066,7 +4070,7 @@
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
     </row>
-    <row r="329" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="4"/>
@@ -4076,7 +4080,7 @@
       <c r="G329" s="4"/>
       <c r="H329" s="4"/>
     </row>
-    <row r="330" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="4"/>
@@ -4086,7 +4090,7 @@
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
     </row>
-    <row r="331" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="4"/>
@@ -4096,7 +4100,7 @@
       <c r="G331" s="4"/>
       <c r="H331" s="4"/>
     </row>
-    <row r="332" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="4"/>
@@ -4106,7 +4110,7 @@
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
     </row>
-    <row r="333" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="4"/>
@@ -4116,7 +4120,7 @@
       <c r="G333" s="4"/>
       <c r="H333" s="4"/>
     </row>
-    <row r="334" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="4"/>
@@ -4126,7 +4130,7 @@
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
     </row>
-    <row r="335" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="4"/>
@@ -4136,7 +4140,7 @@
       <c r="G335" s="4"/>
       <c r="H335" s="4"/>
     </row>
-    <row r="336" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="4"/>
@@ -4146,7 +4150,7 @@
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
     </row>
-    <row r="337" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="4"/>
@@ -4156,7 +4160,7 @@
       <c r="G337" s="4"/>
       <c r="H337" s="4"/>
     </row>
-    <row r="338" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="4"/>
@@ -4166,7 +4170,7 @@
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
     </row>
-    <row r="339" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="4"/>
@@ -4176,7 +4180,7 @@
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
     </row>
-    <row r="340" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="4"/>
@@ -4186,7 +4190,7 @@
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
     </row>
-    <row r="341" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="4"/>
@@ -4196,7 +4200,7 @@
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
     </row>
-    <row r="342" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="4"/>
@@ -4206,7 +4210,7 @@
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
     </row>
-    <row r="343" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="4"/>
@@ -4216,7 +4220,7 @@
       <c r="G343" s="4"/>
       <c r="H343" s="4"/>
     </row>
-    <row r="344" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="4"/>
@@ -4226,7 +4230,7 @@
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
     </row>
-    <row r="345" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="4"/>
@@ -4236,7 +4240,7 @@
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
     </row>
-    <row r="346" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="4"/>
@@ -4246,7 +4250,7 @@
       <c r="G346" s="4"/>
       <c r="H346" s="4"/>
     </row>
-    <row r="347" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -4256,7 +4260,7 @@
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
     </row>
-    <row r="348" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="4"/>
@@ -4266,7 +4270,7 @@
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
     </row>
-    <row r="349" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -4276,7 +4280,7 @@
       <c r="G349" s="4"/>
       <c r="H349" s="4"/>
     </row>
-    <row r="350" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -4286,7 +4290,7 @@
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
     </row>
-    <row r="351" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -4296,7 +4300,7 @@
       <c r="G351" s="4"/>
       <c r="H351" s="4"/>
     </row>
-    <row r="352" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -4306,7 +4310,7 @@
       <c r="G352" s="4"/>
       <c r="H352" s="4"/>
     </row>
-    <row r="353" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -4316,7 +4320,7 @@
       <c r="G353" s="4"/>
       <c r="H353" s="4"/>
     </row>
-    <row r="354" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -4326,7 +4330,7 @@
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
     </row>
-    <row r="355" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="4"/>
@@ -4336,7 +4340,7 @@
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
     </row>
-    <row r="356" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="4"/>
@@ -4346,7 +4350,7 @@
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
     </row>
-    <row r="357" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="4"/>
@@ -4356,7 +4360,7 @@
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
     </row>
-    <row r="358" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="4"/>
@@ -4366,7 +4370,7 @@
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
     </row>
-    <row r="359" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="4"/>
@@ -4376,7 +4380,7 @@
       <c r="G359" s="4"/>
       <c r="H359" s="4"/>
     </row>
-    <row r="360" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="4"/>
@@ -4386,7 +4390,7 @@
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
     </row>
-    <row r="361" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="4"/>
@@ -4396,7 +4400,7 @@
       <c r="G361" s="4"/>
       <c r="H361" s="4"/>
     </row>
-    <row r="362" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="4"/>
@@ -4406,7 +4410,7 @@
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
     </row>
-    <row r="363" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="4"/>
@@ -4416,7 +4420,7 @@
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
     </row>
-    <row r="364" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="4"/>
@@ -4426,7 +4430,7 @@
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
     </row>
-    <row r="365" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="4"/>
@@ -4436,7 +4440,7 @@
       <c r="G365" s="4"/>
       <c r="H365" s="4"/>
     </row>
-    <row r="366" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="4"/>
@@ -4446,7 +4450,7 @@
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
     </row>
-    <row r="367" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="4"/>
@@ -4456,7 +4460,7 @@
       <c r="G367" s="4"/>
       <c r="H367" s="4"/>
     </row>
-    <row r="368" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="4"/>
@@ -4466,7 +4470,7 @@
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
     </row>
-    <row r="369" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="4"/>
@@ -4476,7 +4480,7 @@
       <c r="G369" s="4"/>
       <c r="H369" s="4"/>
     </row>
-    <row r="370" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -4486,7 +4490,7 @@
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
     </row>
-    <row r="371" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -4496,7 +4500,7 @@
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
     </row>
-    <row r="372" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -4506,7 +4510,7 @@
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
     </row>
-    <row r="373" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -4516,7 +4520,7 @@
       <c r="G373" s="4"/>
       <c r="H373" s="4"/>
     </row>
-    <row r="374" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -4526,7 +4530,7 @@
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
     </row>
-    <row r="375" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -4536,7 +4540,7 @@
       <c r="G375" s="4"/>
       <c r="H375" s="4"/>
     </row>
-    <row r="376" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -4546,7 +4550,7 @@
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
     </row>
-    <row r="377" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -4556,7 +4560,7 @@
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
     </row>
-    <row r="378" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -4566,7 +4570,7 @@
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
     </row>
-    <row r="379" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -4576,7 +4580,7 @@
       <c r="G379" s="4"/>
       <c r="H379" s="4"/>
     </row>
-    <row r="380" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -4586,7 +4590,7 @@
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
     </row>
-    <row r="381" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -4596,7 +4600,7 @@
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
     </row>
-    <row r="382" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -4606,7 +4610,7 @@
       <c r="G382" s="4"/>
       <c r="H382" s="4"/>
     </row>
-    <row r="383" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -4616,7 +4620,7 @@
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
     </row>
-    <row r="384" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -4626,7 +4630,7 @@
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
     </row>
-    <row r="385" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -4636,7 +4640,7 @@
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
     </row>
-    <row r="386" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -4646,7 +4650,7 @@
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
     </row>
-    <row r="387" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -4656,7 +4660,7 @@
       <c r="G387" s="4"/>
       <c r="H387" s="4"/>
     </row>
-    <row r="388" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -4666,7 +4670,7 @@
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
     </row>
-    <row r="389" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -4676,7 +4680,7 @@
       <c r="G389" s="4"/>
       <c r="H389" s="4"/>
     </row>
-    <row r="390" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -4686,7 +4690,7 @@
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
     </row>
-    <row r="391" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -4696,7 +4700,7 @@
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
     </row>
-    <row r="392" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -4706,7 +4710,7 @@
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
     </row>
-    <row r="393" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -4716,7 +4720,7 @@
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
     </row>
-    <row r="394" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -4726,7 +4730,7 @@
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
     </row>
-    <row r="395" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -4736,7 +4740,7 @@
       <c r="G395" s="4"/>
       <c r="H395" s="4"/>
     </row>
-    <row r="396" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -4746,7 +4750,7 @@
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
     </row>
-    <row r="397" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -4756,7 +4760,7 @@
       <c r="G397" s="4"/>
       <c r="H397" s="4"/>
     </row>
-    <row r="398" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -4766,7 +4770,7 @@
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
     </row>
-    <row r="399" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -4776,7 +4780,7 @@
       <c r="G399" s="4"/>
       <c r="H399" s="4"/>
     </row>
-    <row r="400" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -4786,7 +4790,7 @@
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
     </row>
-    <row r="401" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -4796,7 +4800,7 @@
       <c r="G401" s="4"/>
       <c r="H401" s="4"/>
     </row>
-    <row r="402" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="4"/>
@@ -4806,7 +4810,7 @@
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
     </row>
-    <row r="403" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="4"/>
@@ -4816,7 +4820,7 @@
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
     </row>
-    <row r="404" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="4"/>
@@ -4826,7 +4830,7 @@
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
     </row>
-    <row r="405" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="4"/>
@@ -4836,7 +4840,7 @@
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
     </row>
-    <row r="406" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -4846,7 +4850,7 @@
       <c r="G406" s="4"/>
       <c r="H406" s="4"/>
     </row>
-    <row r="407" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -4856,7 +4860,7 @@
       <c r="G407" s="4"/>
       <c r="H407" s="4"/>
     </row>
-    <row r="408" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="4"/>
@@ -4866,7 +4870,7 @@
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
     </row>
-    <row r="409" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="4"/>
@@ -4876,7 +4880,7 @@
       <c r="G409" s="4"/>
       <c r="H409" s="4"/>
     </row>
-    <row r="410" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -4886,7 +4890,7 @@
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
     </row>
-    <row r="411" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="4"/>
@@ -4896,7 +4900,7 @@
       <c r="G411" s="4"/>
       <c r="H411" s="4"/>
     </row>
-    <row r="412" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="4"/>
@@ -4906,7 +4910,7 @@
       <c r="G412" s="4"/>
       <c r="H412" s="4"/>
     </row>
-    <row r="413" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -4916,7 +4920,7 @@
       <c r="G413" s="4"/>
       <c r="H413" s="4"/>
     </row>
-    <row r="414" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="4"/>
@@ -4926,7 +4930,7 @@
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
     </row>
-    <row r="415" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="4"/>
@@ -4936,7 +4940,7 @@
       <c r="G415" s="4"/>
       <c r="H415" s="4"/>
     </row>
-    <row r="416" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -4946,7 +4950,7 @@
       <c r="G416" s="4"/>
       <c r="H416" s="4"/>
     </row>
-    <row r="417" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -4956,7 +4960,7 @@
       <c r="G417" s="4"/>
       <c r="H417" s="4"/>
     </row>
-    <row r="418" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -4966,7 +4970,7 @@
       <c r="G418" s="4"/>
       <c r="H418" s="4"/>
     </row>
-    <row r="419" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="4"/>
@@ -4976,7 +4980,7 @@
       <c r="G419" s="4"/>
       <c r="H419" s="4"/>
     </row>
-    <row r="420" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="4"/>
@@ -4986,7 +4990,7 @@
       <c r="G420" s="4"/>
       <c r="H420" s="4"/>
     </row>
-    <row r="421" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="4"/>
@@ -4996,7 +5000,7 @@
       <c r="G421" s="4"/>
       <c r="H421" s="4"/>
     </row>
-    <row r="422" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="4"/>
@@ -5006,7 +5010,7 @@
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
     </row>
-    <row r="423" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="4"/>
@@ -5016,7 +5020,7 @@
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
     </row>
-    <row r="424" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="4"/>
@@ -5026,7 +5030,7 @@
       <c r="G424" s="4"/>
       <c r="H424" s="4"/>
     </row>
-    <row r="425" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="4"/>
@@ -5036,7 +5040,7 @@
       <c r="G425" s="4"/>
       <c r="H425" s="4"/>
     </row>
-    <row r="426" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="4"/>
@@ -5046,7 +5050,7 @@
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
     </row>
-    <row r="427" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="4"/>
@@ -5056,7 +5060,7 @@
       <c r="G427" s="4"/>
       <c r="H427" s="4"/>
     </row>
-    <row r="428" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -5066,7 +5070,7 @@
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
     </row>
-    <row r="429" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="4"/>
@@ -5076,7 +5080,7 @@
       <c r="G429" s="4"/>
       <c r="H429" s="4"/>
     </row>
-    <row r="430" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="4"/>
@@ -5086,7 +5090,7 @@
       <c r="G430" s="4"/>
       <c r="H430" s="4"/>
     </row>
-    <row r="431" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -5096,7 +5100,7 @@
       <c r="G431" s="4"/>
       <c r="H431" s="4"/>
     </row>
-    <row r="432" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="4"/>
@@ -5106,7 +5110,7 @@
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
     </row>
-    <row r="433" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="4"/>
@@ -5116,7 +5120,7 @@
       <c r="G433" s="4"/>
       <c r="H433" s="4"/>
     </row>
-    <row r="434" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="4"/>
@@ -5126,7 +5130,7 @@
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
     </row>
-    <row r="435" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="4"/>
@@ -5136,7 +5140,7 @@
       <c r="G435" s="4"/>
       <c r="H435" s="4"/>
     </row>
-    <row r="436" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="4"/>
@@ -5146,7 +5150,7 @@
       <c r="G436" s="4"/>
       <c r="H436" s="4"/>
     </row>
-    <row r="437" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="4"/>
@@ -5156,7 +5160,7 @@
       <c r="G437" s="4"/>
       <c r="H437" s="4"/>
     </row>
-    <row r="438" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -5166,7 +5170,7 @@
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
     </row>
-    <row r="439" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -5176,7 +5180,7 @@
       <c r="G439" s="4"/>
       <c r="H439" s="4"/>
     </row>
-    <row r="440" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -5186,7 +5190,7 @@
       <c r="G440" s="4"/>
       <c r="H440" s="4"/>
     </row>
-    <row r="441" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -5196,7 +5200,7 @@
       <c r="G441" s="4"/>
       <c r="H441" s="4"/>
     </row>
-    <row r="442" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -5206,7 +5210,7 @@
       <c r="G442" s="4"/>
       <c r="H442" s="4"/>
     </row>
-    <row r="443" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -5216,7 +5220,7 @@
       <c r="G443" s="4"/>
       <c r="H443" s="4"/>
     </row>
-    <row r="444" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
@@ -5226,7 +5230,7 @@
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
     </row>
-    <row r="445" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
@@ -5236,7 +5240,7 @@
       <c r="G445" s="4"/>
       <c r="H445" s="4"/>
     </row>
-    <row r="446" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="4"/>
@@ -5246,7 +5250,7 @@
       <c r="G446" s="4"/>
       <c r="H446" s="4"/>
     </row>
-    <row r="447" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="4"/>
@@ -5256,7 +5260,7 @@
       <c r="G447" s="4"/>
       <c r="H447" s="4"/>
     </row>
-    <row r="448" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="4"/>
@@ -5266,7 +5270,7 @@
       <c r="G448" s="4"/>
       <c r="H448" s="4"/>
     </row>
-    <row r="449" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="4"/>
@@ -5276,7 +5280,7 @@
       <c r="G449" s="4"/>
       <c r="H449" s="4"/>
     </row>
-    <row r="450" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="4"/>
@@ -5286,7 +5290,7 @@
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
     </row>
-    <row r="451" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="4"/>
@@ -5296,7 +5300,7 @@
       <c r="G451" s="4"/>
       <c r="H451" s="4"/>
     </row>
-    <row r="452" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="4"/>
@@ -5306,7 +5310,7 @@
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
     </row>
-    <row r="453" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="4"/>
@@ -5316,7 +5320,7 @@
       <c r="G453" s="4"/>
       <c r="H453" s="4"/>
     </row>
-    <row r="454" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="4"/>
@@ -5326,7 +5330,7 @@
       <c r="G454" s="4"/>
       <c r="H454" s="4"/>
     </row>
-    <row r="455" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -5336,7 +5340,7 @@
       <c r="G455" s="4"/>
       <c r="H455" s="4"/>
     </row>
-    <row r="456" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -5346,7 +5350,7 @@
       <c r="G456" s="4"/>
       <c r="H456" s="4"/>
     </row>
-    <row r="457" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -5356,7 +5360,7 @@
       <c r="G457" s="4"/>
       <c r="H457" s="4"/>
     </row>
-    <row r="458" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -5366,7 +5370,7 @@
       <c r="G458" s="4"/>
       <c r="H458" s="4"/>
     </row>
-    <row r="459" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -5376,7 +5380,7 @@
       <c r="G459" s="4"/>
       <c r="H459" s="4"/>
     </row>
-    <row r="460" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="4"/>
@@ -5386,7 +5390,7 @@
       <c r="G460" s="4"/>
       <c r="H460" s="4"/>
     </row>
-    <row r="461" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -5396,7 +5400,7 @@
       <c r="G461" s="4"/>
       <c r="H461" s="4"/>
     </row>
-    <row r="462" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="4"/>
@@ -5406,7 +5410,7 @@
       <c r="G462" s="4"/>
       <c r="H462" s="4"/>
     </row>
-    <row r="463" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="4"/>
@@ -5416,7 +5420,7 @@
       <c r="G463" s="4"/>
       <c r="H463" s="4"/>
     </row>
-    <row r="464" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="4"/>
@@ -5426,7 +5430,7 @@
       <c r="G464" s="4"/>
       <c r="H464" s="4"/>
     </row>
-    <row r="465" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="4"/>
@@ -5436,7 +5440,7 @@
       <c r="G465" s="4"/>
       <c r="H465" s="4"/>
     </row>
-    <row r="466" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="4"/>
@@ -5446,7 +5450,7 @@
       <c r="G466" s="4"/>
       <c r="H466" s="4"/>
     </row>
-    <row r="467" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="4"/>
@@ -5456,7 +5460,7 @@
       <c r="G467" s="4"/>
       <c r="H467" s="4"/>
     </row>
-    <row r="468" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="4"/>
@@ -5466,7 +5470,7 @@
       <c r="G468" s="4"/>
       <c r="H468" s="4"/>
     </row>
-    <row r="469" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="4"/>
@@ -5476,7 +5480,7 @@
       <c r="G469" s="4"/>
       <c r="H469" s="4"/>
     </row>
-    <row r="470" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="4"/>
@@ -5486,7 +5490,7 @@
       <c r="G470" s="4"/>
       <c r="H470" s="4"/>
     </row>
-    <row r="471" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="4"/>
@@ -5496,7 +5500,7 @@
       <c r="G471" s="4"/>
       <c r="H471" s="4"/>
     </row>
-    <row r="472" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="4"/>
@@ -5506,7 +5510,7 @@
       <c r="G472" s="4"/>
       <c r="H472" s="4"/>
     </row>
-    <row r="473" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="4"/>
@@ -5516,7 +5520,7 @@
       <c r="G473" s="4"/>
       <c r="H473" s="4"/>
     </row>
-    <row r="474" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="4"/>
@@ -5526,7 +5530,7 @@
       <c r="G474" s="4"/>
       <c r="H474" s="4"/>
     </row>
-    <row r="475" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="4"/>
@@ -5536,7 +5540,7 @@
       <c r="G475" s="4"/>
       <c r="H475" s="4"/>
     </row>
-    <row r="476" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="4"/>
@@ -5546,7 +5550,7 @@
       <c r="G476" s="4"/>
       <c r="H476" s="4"/>
     </row>
-    <row r="477" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="4"/>
@@ -5556,7 +5560,7 @@
       <c r="G477" s="4"/>
       <c r="H477" s="4"/>
     </row>
-    <row r="478" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="4"/>
@@ -5566,7 +5570,7 @@
       <c r="G478" s="4"/>
       <c r="H478" s="4"/>
     </row>
-    <row r="479" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="4"/>
@@ -5576,7 +5580,7 @@
       <c r="G479" s="4"/>
       <c r="H479" s="4"/>
     </row>
-    <row r="480" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="4"/>
@@ -5586,7 +5590,7 @@
       <c r="G480" s="4"/>
       <c r="H480" s="4"/>
     </row>
-    <row r="481" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="4"/>
@@ -5596,7 +5600,7 @@
       <c r="G481" s="4"/>
       <c r="H481" s="4"/>
     </row>
-    <row r="482" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="4"/>
@@ -5606,7 +5610,7 @@
       <c r="G482" s="4"/>
       <c r="H482" s="4"/>
     </row>
-    <row r="483" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="4"/>
@@ -5616,7 +5620,7 @@
       <c r="G483" s="4"/>
       <c r="H483" s="4"/>
     </row>
-    <row r="484" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="4"/>
@@ -5626,7 +5630,7 @@
       <c r="G484" s="4"/>
       <c r="H484" s="4"/>
     </row>
-    <row r="485" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="4"/>
@@ -5636,7 +5640,7 @@
       <c r="G485" s="4"/>
       <c r="H485" s="4"/>
     </row>
-    <row r="486" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="4"/>
@@ -5646,7 +5650,7 @@
       <c r="G486" s="4"/>
       <c r="H486" s="4"/>
     </row>
-    <row r="487" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="4"/>
@@ -5656,7 +5660,7 @@
       <c r="G487" s="4"/>
       <c r="H487" s="4"/>
     </row>
-    <row r="488" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="4"/>
@@ -5666,7 +5670,7 @@
       <c r="G488" s="4"/>
       <c r="H488" s="4"/>
     </row>
-    <row r="489" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="4"/>
@@ -5676,7 +5680,7 @@
       <c r="G489" s="4"/>
       <c r="H489" s="4"/>
     </row>
-    <row r="490" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="4"/>
@@ -5686,7 +5690,7 @@
       <c r="G490" s="4"/>
       <c r="H490" s="4"/>
     </row>
-    <row r="491" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="4"/>
@@ -5696,7 +5700,7 @@
       <c r="G491" s="4"/>
       <c r="H491" s="4"/>
     </row>
-    <row r="492" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="4"/>
@@ -5706,7 +5710,7 @@
       <c r="G492" s="4"/>
       <c r="H492" s="4"/>
     </row>
-    <row r="493" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="4"/>
@@ -5716,7 +5720,7 @@
       <c r="G493" s="4"/>
       <c r="H493" s="4"/>
     </row>
-    <row r="494" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="4"/>
@@ -5726,7 +5730,7 @@
       <c r="G494" s="4"/>
       <c r="H494" s="4"/>
     </row>
-    <row r="495" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="4"/>
@@ -5736,7 +5740,7 @@
       <c r="G495" s="4"/>
       <c r="H495" s="4"/>
     </row>
-    <row r="496" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="4"/>
@@ -5746,7 +5750,7 @@
       <c r="G496" s="4"/>
       <c r="H496" s="4"/>
     </row>
-    <row r="497" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="4"/>
@@ -5756,7 +5760,7 @@
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
     </row>
-    <row r="498" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="4"/>
@@ -5766,7 +5770,7 @@
       <c r="G498" s="4"/>
       <c r="H498" s="4"/>
     </row>
-    <row r="499" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="4"/>
@@ -5776,7 +5780,7 @@
       <c r="G499" s="4"/>
       <c r="H499" s="4"/>
     </row>
-    <row r="500" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="4"/>
@@ -5786,7 +5790,7 @@
       <c r="G500" s="4"/>
       <c r="H500" s="4"/>
     </row>
-    <row r="501" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="4"/>
@@ -5796,7 +5800,7 @@
       <c r="G501" s="4"/>
       <c r="H501" s="4"/>
     </row>
-    <row r="502" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="4"/>
@@ -5806,7 +5810,7 @@
       <c r="G502" s="4"/>
       <c r="H502" s="4"/>
     </row>
-    <row r="503" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="4"/>
@@ -5816,7 +5820,7 @@
       <c r="G503" s="4"/>
       <c r="H503" s="4"/>
     </row>
-    <row r="504" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="4"/>
@@ -5826,7 +5830,7 @@
       <c r="G504" s="4"/>
       <c r="H504" s="4"/>
     </row>
-    <row r="505" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="4"/>
@@ -5836,7 +5840,7 @@
       <c r="G505" s="4"/>
       <c r="H505" s="4"/>
     </row>
-    <row r="506" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="4"/>
@@ -5846,7 +5850,7 @@
       <c r="G506" s="4"/>
       <c r="H506" s="4"/>
     </row>
-    <row r="507" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="4"/>
@@ -5856,7 +5860,7 @@
       <c r="G507" s="4"/>
       <c r="H507" s="4"/>
     </row>
-    <row r="508" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="4"/>
@@ -5866,7 +5870,7 @@
       <c r="G508" s="4"/>
       <c r="H508" s="4"/>
     </row>
-    <row r="509" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="4"/>
@@ -5876,7 +5880,7 @@
       <c r="G509" s="4"/>
       <c r="H509" s="4"/>
     </row>
-    <row r="510" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="4"/>
@@ -5886,7 +5890,7 @@
       <c r="G510" s="4"/>
       <c r="H510" s="4"/>
     </row>
-    <row r="511" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="4"/>
@@ -5896,7 +5900,7 @@
       <c r="G511" s="4"/>
       <c r="H511" s="4"/>
     </row>
-    <row r="512" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="4"/>
@@ -5906,7 +5910,7 @@
       <c r="G512" s="4"/>
       <c r="H512" s="4"/>
     </row>
-    <row r="513" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="4"/>
@@ -5916,7 +5920,7 @@
       <c r="G513" s="4"/>
       <c r="H513" s="4"/>
     </row>
-    <row r="514" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="4"/>
@@ -5926,7 +5930,7 @@
       <c r="G514" s="4"/>
       <c r="H514" s="4"/>
     </row>
-    <row r="515" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="4"/>
@@ -5936,7 +5940,7 @@
       <c r="G515" s="4"/>
       <c r="H515" s="4"/>
     </row>
-    <row r="516" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -5946,7 +5950,7 @@
       <c r="G516" s="4"/>
       <c r="H516" s="4"/>
     </row>
-    <row r="517" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="4"/>
@@ -5956,7 +5960,7 @@
       <c r="G517" s="4"/>
       <c r="H517" s="4"/>
     </row>
-    <row r="518" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="4"/>
@@ -5966,7 +5970,7 @@
       <c r="G518" s="4"/>
       <c r="H518" s="4"/>
     </row>
-    <row r="519" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="4"/>
@@ -5976,7 +5980,7 @@
       <c r="G519" s="4"/>
       <c r="H519" s="4"/>
     </row>
-    <row r="520" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="4"/>
@@ -5986,7 +5990,7 @@
       <c r="G520" s="4"/>
       <c r="H520" s="4"/>
     </row>
-    <row r="521" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="4"/>
@@ -5996,7 +6000,7 @@
       <c r="G521" s="4"/>
       <c r="H521" s="4"/>
     </row>
-    <row r="522" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="4"/>
@@ -6006,7 +6010,7 @@
       <c r="G522" s="4"/>
       <c r="H522" s="4"/>
     </row>
-    <row r="523" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="4"/>
@@ -6016,7 +6020,7 @@
       <c r="G523" s="4"/>
       <c r="H523" s="4"/>
     </row>
-    <row r="524" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -6026,7 +6030,7 @@
       <c r="G524" s="4"/>
       <c r="H524" s="4"/>
     </row>
-    <row r="525" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -6036,7 +6040,7 @@
       <c r="G525" s="4"/>
       <c r="H525" s="4"/>
     </row>
-    <row r="526" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="4"/>
@@ -6046,7 +6050,7 @@
       <c r="G526" s="4"/>
       <c r="H526" s="4"/>
     </row>
-    <row r="527" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="4"/>
@@ -6056,7 +6060,7 @@
       <c r="G527" s="4"/>
       <c r="H527" s="4"/>
     </row>
-    <row r="528" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="4"/>
@@ -6066,7 +6070,7 @@
       <c r="G528" s="4"/>
       <c r="H528" s="4"/>
     </row>
-    <row r="529" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="4"/>
@@ -6076,7 +6080,7 @@
       <c r="G529" s="4"/>
       <c r="H529" s="4"/>
     </row>
-    <row r="530" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="4"/>
@@ -6086,7 +6090,7 @@
       <c r="G530" s="4"/>
       <c r="H530" s="4"/>
     </row>
-    <row r="531" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="4"/>
@@ -6096,7 +6100,7 @@
       <c r="G531" s="4"/>
       <c r="H531" s="4"/>
     </row>
-    <row r="532" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="4"/>
@@ -6106,7 +6110,7 @@
       <c r="G532" s="4"/>
       <c r="H532" s="4"/>
     </row>
-    <row r="533" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="4"/>
@@ -6116,7 +6120,7 @@
       <c r="G533" s="4"/>
       <c r="H533" s="4"/>
     </row>
-    <row r="534" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="4"/>
@@ -6126,7 +6130,7 @@
       <c r="G534" s="4"/>
       <c r="H534" s="4"/>
     </row>
-    <row r="535" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="4"/>
@@ -6136,7 +6140,7 @@
       <c r="G535" s="4"/>
       <c r="H535" s="4"/>
     </row>
-    <row r="536" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="4"/>
@@ -6146,7 +6150,7 @@
       <c r="G536" s="4"/>
       <c r="H536" s="4"/>
     </row>
-    <row r="537" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="4"/>
@@ -6156,7 +6160,7 @@
       <c r="G537" s="4"/>
       <c r="H537" s="4"/>
     </row>
-    <row r="538" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="4"/>
@@ -6166,7 +6170,7 @@
       <c r="G538" s="4"/>
       <c r="H538" s="4"/>
     </row>
-    <row r="539" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="4"/>
@@ -6176,7 +6180,7 @@
       <c r="G539" s="4"/>
       <c r="H539" s="4"/>
     </row>
-    <row r="540" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="4"/>
@@ -6186,7 +6190,7 @@
       <c r="G540" s="4"/>
       <c r="H540" s="4"/>
     </row>
-    <row r="541" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="4"/>
@@ -6196,7 +6200,7 @@
       <c r="G541" s="4"/>
       <c r="H541" s="4"/>
     </row>
-    <row r="542" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="4"/>
@@ -6206,7 +6210,7 @@
       <c r="G542" s="4"/>
       <c r="H542" s="4"/>
     </row>
-    <row r="543" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -6216,7 +6220,7 @@
       <c r="G543" s="4"/>
       <c r="H543" s="4"/>
     </row>
-    <row r="544" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="4"/>
@@ -6226,7 +6230,7 @@
       <c r="G544" s="4"/>
       <c r="H544" s="4"/>
     </row>
-    <row r="545" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="4"/>
@@ -6236,7 +6240,7 @@
       <c r="G545" s="4"/>
       <c r="H545" s="4"/>
     </row>
-    <row r="546" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="4"/>
@@ -6246,7 +6250,7 @@
       <c r="G546" s="4"/>
       <c r="H546" s="4"/>
     </row>
-    <row r="547" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="4"/>
@@ -6256,7 +6260,7 @@
       <c r="G547" s="4"/>
       <c r="H547" s="4"/>
     </row>
-    <row r="548" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="4"/>
@@ -6266,7 +6270,7 @@
       <c r="G548" s="4"/>
       <c r="H548" s="4"/>
     </row>
-    <row r="549" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="4"/>
@@ -6276,7 +6280,7 @@
       <c r="G549" s="4"/>
       <c r="H549" s="4"/>
     </row>
-    <row r="550" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="4"/>
@@ -6286,7 +6290,7 @@
       <c r="G550" s="4"/>
       <c r="H550" s="4"/>
     </row>
-    <row r="551" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="4"/>
@@ -6296,7 +6300,7 @@
       <c r="G551" s="4"/>
       <c r="H551" s="4"/>
     </row>
-    <row r="552" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="4"/>
@@ -6306,7 +6310,7 @@
       <c r="G552" s="4"/>
       <c r="H552" s="4"/>
     </row>
-    <row r="553" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="4"/>
@@ -6316,7 +6320,7 @@
       <c r="G553" s="4"/>
       <c r="H553" s="4"/>
     </row>
-    <row r="554" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="4"/>
@@ -6326,7 +6330,7 @@
       <c r="G554" s="4"/>
       <c r="H554" s="4"/>
     </row>
-    <row r="555" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="4"/>
@@ -6336,7 +6340,7 @@
       <c r="G555" s="4"/>
       <c r="H555" s="4"/>
     </row>
-    <row r="556" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="4"/>
@@ -6346,7 +6350,7 @@
       <c r="G556" s="4"/>
       <c r="H556" s="4"/>
     </row>
-    <row r="557" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="4"/>
@@ -6356,7 +6360,7 @@
       <c r="G557" s="4"/>
       <c r="H557" s="4"/>
     </row>
-    <row r="558" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="4"/>
@@ -6366,7 +6370,7 @@
       <c r="G558" s="4"/>
       <c r="H558" s="4"/>
     </row>
-    <row r="559" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="4"/>
@@ -6376,7 +6380,7 @@
       <c r="G559" s="4"/>
       <c r="H559" s="4"/>
     </row>
-    <row r="560" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="4"/>
@@ -6386,7 +6390,7 @@
       <c r="G560" s="4"/>
       <c r="H560" s="4"/>
     </row>
-    <row r="561" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="4"/>
@@ -6396,7 +6400,7 @@
       <c r="G561" s="4"/>
       <c r="H561" s="4"/>
     </row>
-    <row r="562" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
@@ -6406,7 +6410,7 @@
       <c r="G562" s="4"/>
       <c r="H562" s="4"/>
     </row>
-    <row r="563" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="4"/>
@@ -6416,7 +6420,7 @@
       <c r="G563" s="4"/>
       <c r="H563" s="4"/>
     </row>
-    <row r="564" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
@@ -6426,7 +6430,7 @@
       <c r="G564" s="4"/>
       <c r="H564" s="4"/>
     </row>
-    <row r="565" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="4"/>
@@ -6436,7 +6440,7 @@
       <c r="G565" s="4"/>
       <c r="H565" s="4"/>
     </row>
-    <row r="566" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="4"/>
@@ -6446,7 +6450,7 @@
       <c r="G566" s="4"/>
       <c r="H566" s="4"/>
     </row>
-    <row r="567" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="4"/>
@@ -6456,7 +6460,7 @@
       <c r="G567" s="4"/>
       <c r="H567" s="4"/>
     </row>
-    <row r="568" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="4"/>
@@ -6466,7 +6470,7 @@
       <c r="G568" s="4"/>
       <c r="H568" s="4"/>
     </row>
-    <row r="569" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="4"/>
@@ -6476,7 +6480,7 @@
       <c r="G569" s="4"/>
       <c r="H569" s="4"/>
     </row>
-    <row r="570" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="4"/>
@@ -6486,7 +6490,7 @@
       <c r="G570" s="4"/>
       <c r="H570" s="4"/>
     </row>
-    <row r="571" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="4"/>
@@ -6496,7 +6500,7 @@
       <c r="G571" s="4"/>
       <c r="H571" s="4"/>
     </row>
-    <row r="572" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="4"/>
@@ -6506,7 +6510,7 @@
       <c r="G572" s="4"/>
       <c r="H572" s="4"/>
     </row>
-    <row r="573" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="4"/>
@@ -6516,7 +6520,7 @@
       <c r="G573" s="4"/>
       <c r="H573" s="4"/>
     </row>
-    <row r="574" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="4"/>
@@ -6526,7 +6530,7 @@
       <c r="G574" s="4"/>
       <c r="H574" s="4"/>
     </row>
-    <row r="575" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="4"/>
@@ -6536,7 +6540,7 @@
       <c r="G575" s="4"/>
       <c r="H575" s="4"/>
     </row>
-    <row r="576" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="4"/>
@@ -6546,7 +6550,7 @@
       <c r="G576" s="4"/>
       <c r="H576" s="4"/>
     </row>
-    <row r="577" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="4"/>
@@ -6556,7 +6560,7 @@
       <c r="G577" s="4"/>
       <c r="H577" s="4"/>
     </row>
-    <row r="578" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="4"/>
@@ -6566,7 +6570,7 @@
       <c r="G578" s="4"/>
       <c r="H578" s="4"/>
     </row>
-    <row r="579" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="4"/>
@@ -6576,7 +6580,7 @@
       <c r="G579" s="4"/>
       <c r="H579" s="4"/>
     </row>
-    <row r="580" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="4"/>
@@ -6586,7 +6590,7 @@
       <c r="G580" s="4"/>
       <c r="H580" s="4"/>
     </row>
-    <row r="581" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="4"/>
@@ -6596,7 +6600,7 @@
       <c r="G581" s="4"/>
       <c r="H581" s="4"/>
     </row>
-    <row r="582" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="4"/>
@@ -6606,7 +6610,7 @@
       <c r="G582" s="4"/>
       <c r="H582" s="4"/>
     </row>
-    <row r="583" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="4"/>
@@ -6616,7 +6620,7 @@
       <c r="G583" s="4"/>
       <c r="H583" s="4"/>
     </row>
-    <row r="584" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="4"/>
@@ -6626,7 +6630,7 @@
       <c r="G584" s="4"/>
       <c r="H584" s="4"/>
     </row>
-    <row r="585" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="4"/>
@@ -6636,7 +6640,7 @@
       <c r="G585" s="4"/>
       <c r="H585" s="4"/>
     </row>
-    <row r="586" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="4"/>
@@ -6646,7 +6650,7 @@
       <c r="G586" s="4"/>
       <c r="H586" s="4"/>
     </row>
-    <row r="587" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -6656,7 +6660,7 @@
       <c r="G587" s="4"/>
       <c r="H587" s="4"/>
     </row>
-    <row r="588" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="4"/>
@@ -6666,7 +6670,7 @@
       <c r="G588" s="4"/>
       <c r="H588" s="4"/>
     </row>
-    <row r="589" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="4"/>
@@ -6676,7 +6680,7 @@
       <c r="G589" s="4"/>
       <c r="H589" s="4"/>
     </row>
-    <row r="590" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="4"/>
@@ -6686,7 +6690,7 @@
       <c r="G590" s="4"/>
       <c r="H590" s="4"/>
     </row>
-    <row r="591" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="4"/>
@@ -6696,7 +6700,7 @@
       <c r="G591" s="4"/>
       <c r="H591" s="4"/>
     </row>
-    <row r="592" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="4"/>
@@ -6706,7 +6710,7 @@
       <c r="G592" s="4"/>
       <c r="H592" s="4"/>
     </row>
-    <row r="593" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="4"/>
@@ -6716,7 +6720,7 @@
       <c r="G593" s="4"/>
       <c r="H593" s="4"/>
     </row>
-    <row r="594" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="4"/>
@@ -6726,7 +6730,7 @@
       <c r="G594" s="4"/>
       <c r="H594" s="4"/>
     </row>
-    <row r="595" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="4"/>
@@ -6736,7 +6740,7 @@
       <c r="G595" s="4"/>
       <c r="H595" s="4"/>
     </row>
-    <row r="596" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="4"/>
@@ -6746,7 +6750,7 @@
       <c r="G596" s="4"/>
       <c r="H596" s="4"/>
     </row>
-    <row r="597" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="4"/>
@@ -6756,7 +6760,7 @@
       <c r="G597" s="4"/>
       <c r="H597" s="4"/>
     </row>
-    <row r="598" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="4"/>
@@ -6766,7 +6770,7 @@
       <c r="G598" s="4"/>
       <c r="H598" s="4"/>
     </row>
-    <row r="599" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="4"/>
@@ -6776,7 +6780,7 @@
       <c r="G599" s="4"/>
       <c r="H599" s="4"/>
     </row>
-    <row r="600" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="4"/>
@@ -6786,7 +6790,7 @@
       <c r="G600" s="4"/>
       <c r="H600" s="4"/>
     </row>
-    <row r="601" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="4"/>
@@ -6796,7 +6800,7 @@
       <c r="G601" s="4"/>
       <c r="H601" s="4"/>
     </row>
-    <row r="602" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="4"/>
@@ -6806,7 +6810,7 @@
       <c r="G602" s="4"/>
       <c r="H602" s="4"/>
     </row>
-    <row r="603" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="4"/>
@@ -6816,7 +6820,7 @@
       <c r="G603" s="4"/>
       <c r="H603" s="4"/>
     </row>
-    <row r="604" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -6826,7 +6830,7 @@
       <c r="G604" s="4"/>
       <c r="H604" s="4"/>
     </row>
-    <row r="605" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="4"/>
@@ -6836,7 +6840,7 @@
       <c r="G605" s="4"/>
       <c r="H605" s="4"/>
     </row>
-    <row r="606" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="4"/>
@@ -6846,7 +6850,7 @@
       <c r="G606" s="4"/>
       <c r="H606" s="4"/>
     </row>
-    <row r="607" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="4"/>
@@ -6856,7 +6860,7 @@
       <c r="G607" s="4"/>
       <c r="H607" s="4"/>
     </row>
-    <row r="608" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="4"/>
@@ -6866,7 +6870,7 @@
       <c r="G608" s="4"/>
       <c r="H608" s="4"/>
     </row>
-    <row r="609" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="4"/>
@@ -6876,7 +6880,7 @@
       <c r="G609" s="4"/>
       <c r="H609" s="4"/>
     </row>
-    <row r="610" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="4"/>
@@ -6886,7 +6890,7 @@
       <c r="G610" s="4"/>
       <c r="H610" s="4"/>
     </row>
-    <row r="611" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="4"/>
@@ -6896,7 +6900,7 @@
       <c r="G611" s="4"/>
       <c r="H611" s="4"/>
     </row>
-    <row r="612" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="4"/>
@@ -6906,7 +6910,7 @@
       <c r="G612" s="4"/>
       <c r="H612" s="4"/>
     </row>
-    <row r="613" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="4"/>
@@ -6916,7 +6920,7 @@
       <c r="G613" s="4"/>
       <c r="H613" s="4"/>
     </row>
-    <row r="614" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="4"/>
@@ -6926,7 +6930,7 @@
       <c r="G614" s="4"/>
       <c r="H614" s="4"/>
     </row>
-    <row r="615" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="4"/>
@@ -6936,7 +6940,7 @@
       <c r="G615" s="4"/>
       <c r="H615" s="4"/>
     </row>
-    <row r="616" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="4"/>
@@ -6946,7 +6950,7 @@
       <c r="G616" s="4"/>
       <c r="H616" s="4"/>
     </row>
-    <row r="617" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="4"/>
@@ -6956,7 +6960,7 @@
       <c r="G617" s="4"/>
       <c r="H617" s="4"/>
     </row>
-    <row r="618" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="4"/>
@@ -6966,7 +6970,7 @@
       <c r="G618" s="4"/>
       <c r="H618" s="4"/>
     </row>
-    <row r="619" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="4"/>
@@ -6976,7 +6980,7 @@
       <c r="G619" s="4"/>
       <c r="H619" s="4"/>
     </row>
-    <row r="620" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="4"/>
@@ -6986,7 +6990,7 @@
       <c r="G620" s="4"/>
       <c r="H620" s="4"/>
     </row>
-    <row r="621" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="4"/>
@@ -6996,7 +7000,7 @@
       <c r="G621" s="4"/>
       <c r="H621" s="4"/>
     </row>
-    <row r="622" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="4"/>
@@ -7006,7 +7010,7 @@
       <c r="G622" s="4"/>
       <c r="H622" s="4"/>
     </row>
-    <row r="623" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="4"/>
@@ -7016,7 +7020,7 @@
       <c r="G623" s="4"/>
       <c r="H623" s="4"/>
     </row>
-    <row r="624" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="4"/>
@@ -7026,7 +7030,7 @@
       <c r="G624" s="4"/>
       <c r="H624" s="4"/>
     </row>
-    <row r="625" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="4"/>
@@ -7036,7 +7040,7 @@
       <c r="G625" s="4"/>
       <c r="H625" s="4"/>
     </row>
-    <row r="626" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="4"/>
@@ -7046,7 +7050,7 @@
       <c r="G626" s="4"/>
       <c r="H626" s="4"/>
     </row>
-    <row r="627" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="4"/>
@@ -7056,7 +7060,7 @@
       <c r="G627" s="4"/>
       <c r="H627" s="4"/>
     </row>
-    <row r="628" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="4"/>
@@ -7066,7 +7070,7 @@
       <c r="G628" s="4"/>
       <c r="H628" s="4"/>
     </row>
-    <row r="629" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="4"/>
@@ -7076,7 +7080,7 @@
       <c r="G629" s="4"/>
       <c r="H629" s="4"/>
     </row>
-    <row r="630" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="4"/>
@@ -7086,7 +7090,7 @@
       <c r="G630" s="4"/>
       <c r="H630" s="4"/>
     </row>
-    <row r="631" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="4"/>
@@ -7096,7 +7100,7 @@
       <c r="G631" s="4"/>
       <c r="H631" s="4"/>
     </row>
-    <row r="632" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="4"/>
@@ -7106,7 +7110,7 @@
       <c r="G632" s="4"/>
       <c r="H632" s="4"/>
     </row>
-    <row r="633" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="4"/>
@@ -7116,7 +7120,7 @@
       <c r="G633" s="4"/>
       <c r="H633" s="4"/>
     </row>
-    <row r="634" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="4"/>
@@ -7126,7 +7130,7 @@
       <c r="G634" s="4"/>
       <c r="H634" s="4"/>
     </row>
-    <row r="635" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="4"/>
@@ -7136,7 +7140,7 @@
       <c r="G635" s="4"/>
       <c r="H635" s="4"/>
     </row>
-    <row r="636" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="4"/>
@@ -7146,7 +7150,7 @@
       <c r="G636" s="4"/>
       <c r="H636" s="4"/>
     </row>
-    <row r="637" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="4"/>
@@ -7156,7 +7160,7 @@
       <c r="G637" s="4"/>
       <c r="H637" s="4"/>
     </row>
-    <row r="638" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="4"/>
@@ -7166,7 +7170,7 @@
       <c r="G638" s="4"/>
       <c r="H638" s="4"/>
     </row>
-    <row r="639" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="4"/>
@@ -7176,7 +7180,7 @@
       <c r="G639" s="4"/>
       <c r="H639" s="4"/>
     </row>
-    <row r="640" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="4"/>
@@ -7186,7 +7190,7 @@
       <c r="G640" s="4"/>
       <c r="H640" s="4"/>
     </row>
-    <row r="641" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="4"/>
@@ -7196,7 +7200,7 @@
       <c r="G641" s="4"/>
       <c r="H641" s="4"/>
     </row>
-    <row r="642" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="4"/>
@@ -7206,7 +7210,7 @@
       <c r="G642" s="4"/>
       <c r="H642" s="4"/>
     </row>
-    <row r="643" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="4"/>
@@ -7216,7 +7220,7 @@
       <c r="G643" s="4"/>
       <c r="H643" s="4"/>
     </row>
-    <row r="644" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="4"/>
@@ -7226,7 +7230,7 @@
       <c r="G644" s="4"/>
       <c r="H644" s="4"/>
     </row>
-    <row r="645" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="4"/>
@@ -7236,7 +7240,7 @@
       <c r="G645" s="4"/>
       <c r="H645" s="4"/>
     </row>
-    <row r="646" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="4"/>
@@ -7246,7 +7250,7 @@
       <c r="G646" s="4"/>
       <c r="H646" s="4"/>
     </row>
-    <row r="647" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="4"/>
@@ -7256,7 +7260,7 @@
       <c r="G647" s="4"/>
       <c r="H647" s="4"/>
     </row>
-    <row r="648" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="4"/>
@@ -7266,7 +7270,7 @@
       <c r="G648" s="4"/>
       <c r="H648" s="4"/>
     </row>
-    <row r="649" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="4"/>
@@ -7276,7 +7280,7 @@
       <c r="G649" s="4"/>
       <c r="H649" s="4"/>
     </row>
-    <row r="650" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="4"/>
@@ -7286,7 +7290,7 @@
       <c r="G650" s="4"/>
       <c r="H650" s="4"/>
     </row>
-    <row r="651" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="4"/>
@@ -7296,7 +7300,7 @@
       <c r="G651" s="4"/>
       <c r="H651" s="4"/>
     </row>
-    <row r="652" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="4"/>
@@ -7306,7 +7310,7 @@
       <c r="G652" s="4"/>
       <c r="H652" s="4"/>
     </row>
-    <row r="653" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="4"/>
@@ -7316,7 +7320,7 @@
       <c r="G653" s="4"/>
       <c r="H653" s="4"/>
     </row>
-    <row r="654" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="4"/>
       <c r="B654" s="4"/>
       <c r="C654" s="4"/>
@@ -7326,7 +7330,7 @@
       <c r="G654" s="4"/>
       <c r="H654" s="4"/>
     </row>
-    <row r="655" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="4"/>
       <c r="B655" s="4"/>
       <c r="C655" s="4"/>
@@ -7336,7 +7340,7 @@
       <c r="G655" s="4"/>
       <c r="H655" s="4"/>
     </row>
-    <row r="656" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="4"/>
       <c r="B656" s="4"/>
       <c r="C656" s="4"/>
@@ -7346,7 +7350,7 @@
       <c r="G656" s="4"/>
       <c r="H656" s="4"/>
     </row>
-    <row r="657" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="4"/>
       <c r="B657" s="4"/>
       <c r="C657" s="4"/>
@@ -7356,7 +7360,7 @@
       <c r="G657" s="4"/>
       <c r="H657" s="4"/>
     </row>
-    <row r="658" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="4"/>
       <c r="B658" s="4"/>
       <c r="C658" s="4"/>
@@ -7366,7 +7370,7 @@
       <c r="G658" s="4"/>
       <c r="H658" s="4"/>
     </row>
-    <row r="659" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
       <c r="B659" s="4"/>
       <c r="C659" s="4"/>
@@ -7376,7 +7380,7 @@
       <c r="G659" s="4"/>
       <c r="H659" s="4"/>
     </row>
-    <row r="660" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="4"/>
       <c r="B660" s="4"/>
       <c r="C660" s="4"/>
@@ -7386,7 +7390,7 @@
       <c r="G660" s="4"/>
       <c r="H660" s="4"/>
     </row>
-    <row r="661" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="4"/>
       <c r="B661" s="4"/>
       <c r="C661" s="4"/>
@@ -7396,7 +7400,7 @@
       <c r="G661" s="4"/>
       <c r="H661" s="4"/>
     </row>
-    <row r="662" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="4"/>
       <c r="B662" s="4"/>
       <c r="C662" s="4"/>
@@ -7406,7 +7410,7 @@
       <c r="G662" s="4"/>
       <c r="H662" s="4"/>
     </row>
-    <row r="663" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="4"/>
       <c r="B663" s="4"/>
       <c r="C663" s="4"/>
@@ -7416,7 +7420,7 @@
       <c r="G663" s="4"/>
       <c r="H663" s="4"/>
     </row>
-    <row r="664" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="4"/>
       <c r="B664" s="4"/>
       <c r="C664" s="4"/>
@@ -7426,7 +7430,7 @@
       <c r="G664" s="4"/>
       <c r="H664" s="4"/>
     </row>
-    <row r="665" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="4"/>
       <c r="B665" s="4"/>
       <c r="C665" s="4"/>
@@ -7436,7 +7440,7 @@
       <c r="G665" s="4"/>
       <c r="H665" s="4"/>
     </row>
-    <row r="666" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="4"/>
       <c r="B666" s="4"/>
       <c r="C666" s="4"/>
@@ -7446,7 +7450,7 @@
       <c r="G666" s="4"/>
       <c r="H666" s="4"/>
     </row>
-    <row r="667" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="4"/>
       <c r="B667" s="4"/>
       <c r="C667" s="4"/>
@@ -7456,7 +7460,7 @@
       <c r="G667" s="4"/>
       <c r="H667" s="4"/>
     </row>
-    <row r="668" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="4"/>
       <c r="B668" s="4"/>
       <c r="C668" s="4"/>
@@ -7466,7 +7470,7 @@
       <c r="G668" s="4"/>
       <c r="H668" s="4"/>
     </row>
-    <row r="669" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="4"/>
       <c r="B669" s="4"/>
       <c r="C669" s="4"/>
@@ -7476,7 +7480,7 @@
       <c r="G669" s="4"/>
       <c r="H669" s="4"/>
     </row>
-    <row r="670" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="4"/>
       <c r="B670" s="4"/>
       <c r="C670" s="4"/>
@@ -7486,7 +7490,7 @@
       <c r="G670" s="4"/>
       <c r="H670" s="4"/>
     </row>
-    <row r="671" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="4"/>
       <c r="B671" s="4"/>
       <c r="C671" s="4"/>
@@ -7496,7 +7500,7 @@
       <c r="G671" s="4"/>
       <c r="H671" s="4"/>
     </row>
-    <row r="672" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="4"/>
       <c r="B672" s="4"/>
       <c r="C672" s="4"/>
@@ -7506,7 +7510,7 @@
       <c r="G672" s="4"/>
       <c r="H672" s="4"/>
     </row>
-    <row r="673" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="4"/>
       <c r="B673" s="4"/>
       <c r="C673" s="4"/>
@@ -7516,7 +7520,7 @@
       <c r="G673" s="4"/>
       <c r="H673" s="4"/>
     </row>
-    <row r="674" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="4"/>
       <c r="B674" s="4"/>
       <c r="C674" s="4"/>
@@ -7526,7 +7530,7 @@
       <c r="G674" s="4"/>
       <c r="H674" s="4"/>
     </row>
-    <row r="675" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="4"/>
       <c r="B675" s="4"/>
       <c r="C675" s="4"/>
@@ -7536,7 +7540,7 @@
       <c r="G675" s="4"/>
       <c r="H675" s="4"/>
     </row>
-    <row r="676" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="4"/>
       <c r="B676" s="4"/>
       <c r="C676" s="4"/>
@@ -7546,7 +7550,7 @@
       <c r="G676" s="4"/>
       <c r="H676" s="4"/>
     </row>
-    <row r="677" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="4"/>
       <c r="B677" s="4"/>
       <c r="C677" s="4"/>
@@ -7556,7 +7560,7 @@
       <c r="G677" s="4"/>
       <c r="H677" s="4"/>
     </row>
-    <row r="678" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="4"/>
       <c r="B678" s="4"/>
       <c r="C678" s="4"/>
@@ -7566,7 +7570,7 @@
       <c r="G678" s="4"/>
       <c r="H678" s="4"/>
     </row>
-    <row r="679" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="4"/>
       <c r="B679" s="4"/>
       <c r="C679" s="4"/>
@@ -7576,7 +7580,7 @@
       <c r="G679" s="4"/>
       <c r="H679" s="4"/>
     </row>
-    <row r="680" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
       <c r="B680" s="4"/>
       <c r="C680" s="4"/>
@@ -7586,7 +7590,7 @@
       <c r="G680" s="4"/>
       <c r="H680" s="4"/>
     </row>
-    <row r="681" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
       <c r="B681" s="4"/>
       <c r="C681" s="4"/>
@@ -7596,7 +7600,7 @@
       <c r="G681" s="4"/>
       <c r="H681" s="4"/>
     </row>
-    <row r="682" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="4"/>
       <c r="B682" s="4"/>
       <c r="C682" s="4"/>
@@ -7606,7 +7610,7 @@
       <c r="G682" s="4"/>
       <c r="H682" s="4"/>
     </row>
-    <row r="683" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="4"/>
       <c r="B683" s="4"/>
       <c r="C683" s="4"/>
@@ -7616,7 +7620,7 @@
       <c r="G683" s="4"/>
       <c r="H683" s="4"/>
     </row>
-    <row r="684" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="4"/>
       <c r="B684" s="4"/>
       <c r="C684" s="4"/>
@@ -7626,7 +7630,7 @@
       <c r="G684" s="4"/>
       <c r="H684" s="4"/>
     </row>
-    <row r="685" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="4"/>
       <c r="B685" s="4"/>
       <c r="C685" s="4"/>
@@ -7636,7 +7640,7 @@
       <c r="G685" s="4"/>
       <c r="H685" s="4"/>
     </row>
-    <row r="686" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="4"/>
       <c r="B686" s="4"/>
       <c r="C686" s="4"/>
@@ -7646,7 +7650,7 @@
       <c r="G686" s="4"/>
       <c r="H686" s="4"/>
     </row>
-    <row r="687" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="4"/>
       <c r="B687" s="4"/>
       <c r="C687" s="4"/>
@@ -7656,7 +7660,7 @@
       <c r="G687" s="4"/>
       <c r="H687" s="4"/>
     </row>
-    <row r="688" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="4"/>
       <c r="B688" s="4"/>
       <c r="C688" s="4"/>
@@ -7666,7 +7670,7 @@
       <c r="G688" s="4"/>
       <c r="H688" s="4"/>
     </row>
-    <row r="689" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="4"/>
       <c r="B689" s="4"/>
       <c r="C689" s="4"/>
@@ -7676,7 +7680,7 @@
       <c r="G689" s="4"/>
       <c r="H689" s="4"/>
     </row>
-    <row r="690" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="4"/>
       <c r="B690" s="4"/>
       <c r="C690" s="4"/>
@@ -7686,7 +7690,7 @@
       <c r="G690" s="4"/>
       <c r="H690" s="4"/>
     </row>
-    <row r="691" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="4"/>
       <c r="B691" s="4"/>
       <c r="C691" s="4"/>
@@ -7696,7 +7700,7 @@
       <c r="G691" s="4"/>
       <c r="H691" s="4"/>
     </row>
-    <row r="692" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="4"/>
       <c r="B692" s="4"/>
       <c r="C692" s="4"/>
@@ -7706,7 +7710,7 @@
       <c r="G692" s="4"/>
       <c r="H692" s="4"/>
     </row>
-    <row r="693" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="4"/>
       <c r="B693" s="4"/>
       <c r="C693" s="4"/>
@@ -7716,7 +7720,7 @@
       <c r="G693" s="4"/>
       <c r="H693" s="4"/>
     </row>
-    <row r="694" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="4"/>
       <c r="B694" s="4"/>
       <c r="C694" s="4"/>
@@ -7726,7 +7730,7 @@
       <c r="G694" s="4"/>
       <c r="H694" s="4"/>
     </row>
-    <row r="695" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="4"/>
       <c r="B695" s="4"/>
       <c r="C695" s="4"/>
@@ -7736,7 +7740,7 @@
       <c r="G695" s="4"/>
       <c r="H695" s="4"/>
     </row>
-    <row r="696" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="4"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
@@ -7746,7 +7750,7 @@
       <c r="G696" s="4"/>
       <c r="H696" s="4"/>
     </row>
-    <row r="697" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="4"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
@@ -7756,7 +7760,7 @@
       <c r="G697" s="4"/>
       <c r="H697" s="4"/>
     </row>
-    <row r="698" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="4"/>
       <c r="B698" s="4"/>
       <c r="C698" s="4"/>
@@ -7766,7 +7770,7 @@
       <c r="G698" s="4"/>
       <c r="H698" s="4"/>
     </row>
-    <row r="699" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="4"/>
       <c r="B699" s="4"/>
       <c r="C699" s="4"/>
@@ -7776,7 +7780,7 @@
       <c r="G699" s="4"/>
       <c r="H699" s="4"/>
     </row>
-    <row r="700" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="4"/>
       <c r="B700" s="4"/>
       <c r="C700" s="4"/>
@@ -7786,7 +7790,7 @@
       <c r="G700" s="4"/>
       <c r="H700" s="4"/>
     </row>
-    <row r="701" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="4"/>
       <c r="B701" s="4"/>
       <c r="C701" s="4"/>
@@ -7796,7 +7800,7 @@
       <c r="G701" s="4"/>
       <c r="H701" s="4"/>
     </row>
-    <row r="702" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="4"/>
       <c r="B702" s="4"/>
       <c r="C702" s="4"/>
@@ -7806,7 +7810,7 @@
       <c r="G702" s="4"/>
       <c r="H702" s="4"/>
     </row>
-    <row r="703" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="4"/>
       <c r="B703" s="4"/>
       <c r="C703" s="4"/>
@@ -7816,7 +7820,7 @@
       <c r="G703" s="4"/>
       <c r="H703" s="4"/>
     </row>
-    <row r="704" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="4"/>
       <c r="B704" s="4"/>
       <c r="C704" s="4"/>
@@ -7826,7 +7830,7 @@
       <c r="G704" s="4"/>
       <c r="H704" s="4"/>
     </row>
-    <row r="705" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="4"/>
       <c r="B705" s="4"/>
       <c r="C705" s="4"/>
@@ -7836,7 +7840,7 @@
       <c r="G705" s="4"/>
       <c r="H705" s="4"/>
     </row>
-    <row r="706" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="4"/>
       <c r="B706" s="4"/>
       <c r="C706" s="4"/>
@@ -7846,7 +7850,7 @@
       <c r="G706" s="4"/>
       <c r="H706" s="4"/>
     </row>
-    <row r="707" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="4"/>
       <c r="B707" s="4"/>
       <c r="C707" s="4"/>
@@ -7856,7 +7860,7 @@
       <c r="G707" s="4"/>
       <c r="H707" s="4"/>
     </row>
-    <row r="708" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="4"/>
       <c r="B708" s="4"/>
       <c r="C708" s="4"/>
@@ -7866,7 +7870,7 @@
       <c r="G708" s="4"/>
       <c r="H708" s="4"/>
     </row>
-    <row r="709" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="4"/>
       <c r="B709" s="4"/>
       <c r="C709" s="4"/>
@@ -7876,7 +7880,7 @@
       <c r="G709" s="4"/>
       <c r="H709" s="4"/>
     </row>
-    <row r="710" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="4"/>
       <c r="B710" s="4"/>
       <c r="C710" s="4"/>
@@ -7886,7 +7890,7 @@
       <c r="G710" s="4"/>
       <c r="H710" s="4"/>
     </row>
-    <row r="711" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="4"/>
       <c r="B711" s="4"/>
       <c r="C711" s="4"/>
@@ -7896,7 +7900,7 @@
       <c r="G711" s="4"/>
       <c r="H711" s="4"/>
     </row>
-    <row r="712" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="4"/>
       <c r="B712" s="4"/>
       <c r="C712" s="4"/>
@@ -7906,7 +7910,7 @@
       <c r="G712" s="4"/>
       <c r="H712" s="4"/>
     </row>
-    <row r="713" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="4"/>
       <c r="B713" s="4"/>
       <c r="C713" s="4"/>
@@ -7916,7 +7920,7 @@
       <c r="G713" s="4"/>
       <c r="H713" s="4"/>
     </row>
-    <row r="714" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="4"/>
       <c r="B714" s="4"/>
       <c r="C714" s="4"/>
@@ -7926,7 +7930,7 @@
       <c r="G714" s="4"/>
       <c r="H714" s="4"/>
     </row>
-    <row r="715" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="4"/>
       <c r="B715" s="4"/>
       <c r="C715" s="4"/>
@@ -7936,7 +7940,7 @@
       <c r="G715" s="4"/>
       <c r="H715" s="4"/>
     </row>
-    <row r="716" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="4"/>
       <c r="B716" s="4"/>
       <c r="C716" s="4"/>
@@ -7946,7 +7950,7 @@
       <c r="G716" s="4"/>
       <c r="H716" s="4"/>
     </row>
-    <row r="717" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="4"/>
       <c r="B717" s="4"/>
       <c r="C717" s="4"/>
@@ -7956,7 +7960,7 @@
       <c r="G717" s="4"/>
       <c r="H717" s="4"/>
     </row>
-    <row r="718" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="4"/>
       <c r="B718" s="4"/>
       <c r="C718" s="4"/>
@@ -7966,7 +7970,7 @@
       <c r="G718" s="4"/>
       <c r="H718" s="4"/>
     </row>
-    <row r="719" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="4"/>
       <c r="B719" s="4"/>
       <c r="C719" s="4"/>
@@ -7976,7 +7980,7 @@
       <c r="G719" s="4"/>
       <c r="H719" s="4"/>
     </row>
-    <row r="720" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="4"/>
       <c r="B720" s="4"/>
       <c r="C720" s="4"/>
@@ -7986,7 +7990,7 @@
       <c r="G720" s="4"/>
       <c r="H720" s="4"/>
     </row>
-    <row r="721" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="4"/>
       <c r="B721" s="4"/>
       <c r="C721" s="4"/>
@@ -7996,7 +8000,7 @@
       <c r="G721" s="4"/>
       <c r="H721" s="4"/>
     </row>
-    <row r="722" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="4"/>
       <c r="B722" s="4"/>
       <c r="C722" s="4"/>
@@ -8006,7 +8010,7 @@
       <c r="G722" s="4"/>
       <c r="H722" s="4"/>
     </row>
-    <row r="723" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="4"/>
       <c r="B723" s="4"/>
       <c r="C723" s="4"/>
@@ -8016,7 +8020,7 @@
       <c r="G723" s="4"/>
       <c r="H723" s="4"/>
     </row>
-    <row r="724" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="4"/>
       <c r="B724" s="4"/>
       <c r="C724" s="4"/>
@@ -8026,7 +8030,7 @@
       <c r="G724" s="4"/>
       <c r="H724" s="4"/>
     </row>
-    <row r="725" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="4"/>
       <c r="B725" s="4"/>
       <c r="C725" s="4"/>
@@ -8036,7 +8040,7 @@
       <c r="G725" s="4"/>
       <c r="H725" s="4"/>
     </row>
-    <row r="726" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="4"/>
       <c r="B726" s="4"/>
       <c r="C726" s="4"/>
@@ -8046,7 +8050,7 @@
       <c r="G726" s="4"/>
       <c r="H726" s="4"/>
     </row>
-    <row r="727" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="4"/>
       <c r="B727" s="4"/>
       <c r="C727" s="4"/>
@@ -8056,7 +8060,7 @@
       <c r="G727" s="4"/>
       <c r="H727" s="4"/>
     </row>
-    <row r="728" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="4"/>
       <c r="B728" s="4"/>
       <c r="C728" s="4"/>
@@ -8066,7 +8070,7 @@
       <c r="G728" s="4"/>
       <c r="H728" s="4"/>
     </row>
-    <row r="729" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="4"/>
       <c r="B729" s="4"/>
       <c r="C729" s="4"/>
@@ -8076,7 +8080,7 @@
       <c r="G729" s="4"/>
       <c r="H729" s="4"/>
     </row>
-    <row r="730" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="4"/>
       <c r="B730" s="4"/>
       <c r="C730" s="4"/>
@@ -8086,7 +8090,7 @@
       <c r="G730" s="4"/>
       <c r="H730" s="4"/>
     </row>
-    <row r="731" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="4"/>
       <c r="B731" s="4"/>
       <c r="C731" s="4"/>
@@ -8096,7 +8100,7 @@
       <c r="G731" s="4"/>
       <c r="H731" s="4"/>
     </row>
-    <row r="732" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="4"/>
       <c r="B732" s="4"/>
       <c r="C732" s="4"/>
@@ -8106,7 +8110,7 @@
       <c r="G732" s="4"/>
       <c r="H732" s="4"/>
     </row>
-    <row r="733" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="4"/>
       <c r="B733" s="4"/>
       <c r="C733" s="4"/>
@@ -8116,7 +8120,7 @@
       <c r="G733" s="4"/>
       <c r="H733" s="4"/>
     </row>
-    <row r="734" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="4"/>
       <c r="B734" s="4"/>
       <c r="C734" s="4"/>
@@ -8126,7 +8130,7 @@
       <c r="G734" s="4"/>
       <c r="H734" s="4"/>
     </row>
-    <row r="735" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="4"/>
       <c r="B735" s="4"/>
       <c r="C735" s="4"/>
@@ -8136,7 +8140,7 @@
       <c r="G735" s="4"/>
       <c r="H735" s="4"/>
     </row>
-    <row r="736" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="4"/>
       <c r="B736" s="4"/>
       <c r="C736" s="4"/>
@@ -8146,7 +8150,7 @@
       <c r="G736" s="4"/>
       <c r="H736" s="4"/>
     </row>
-    <row r="737" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="4"/>
       <c r="B737" s="4"/>
       <c r="C737" s="4"/>
@@ -8156,7 +8160,7 @@
       <c r="G737" s="4"/>
       <c r="H737" s="4"/>
     </row>
-    <row r="738" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="4"/>
       <c r="B738" s="4"/>
       <c r="C738" s="4"/>
@@ -8166,7 +8170,7 @@
       <c r="G738" s="4"/>
       <c r="H738" s="4"/>
     </row>
-    <row r="739" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="4"/>
       <c r="B739" s="4"/>
       <c r="C739" s="4"/>
@@ -8176,7 +8180,7 @@
       <c r="G739" s="4"/>
       <c r="H739" s="4"/>
     </row>
-    <row r="740" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="4"/>
       <c r="B740" s="4"/>
       <c r="C740" s="4"/>
@@ -8186,7 +8190,7 @@
       <c r="G740" s="4"/>
       <c r="H740" s="4"/>
     </row>
-    <row r="741" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="4"/>
       <c r="B741" s="4"/>
       <c r="C741" s="4"/>
@@ -8196,7 +8200,7 @@
       <c r="G741" s="4"/>
       <c r="H741" s="4"/>
     </row>
-    <row r="742" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="4"/>
       <c r="B742" s="4"/>
       <c r="C742" s="4"/>
@@ -8206,7 +8210,7 @@
       <c r="G742" s="4"/>
       <c r="H742" s="4"/>
     </row>
-    <row r="743" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="4"/>
       <c r="B743" s="4"/>
       <c r="C743" s="4"/>
@@ -8216,7 +8220,7 @@
       <c r="G743" s="4"/>
       <c r="H743" s="4"/>
     </row>
-    <row r="744" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="4"/>
       <c r="B744" s="4"/>
       <c r="C744" s="4"/>
@@ -8226,7 +8230,7 @@
       <c r="G744" s="4"/>
       <c r="H744" s="4"/>
     </row>
-    <row r="745" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="4"/>
       <c r="B745" s="4"/>
       <c r="C745" s="4"/>
@@ -8236,7 +8240,7 @@
       <c r="G745" s="4"/>
       <c r="H745" s="4"/>
     </row>
-    <row r="746" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="4"/>
       <c r="B746" s="4"/>
       <c r="C746" s="4"/>
@@ -8246,7 +8250,7 @@
       <c r="G746" s="4"/>
       <c r="H746" s="4"/>
     </row>
-    <row r="747" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="4"/>
       <c r="B747" s="4"/>
       <c r="C747" s="4"/>
@@ -8256,7 +8260,7 @@
       <c r="G747" s="4"/>
       <c r="H747" s="4"/>
     </row>
-    <row r="748" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="4"/>
       <c r="B748" s="4"/>
       <c r="C748" s="4"/>
@@ -8266,7 +8270,7 @@
       <c r="G748" s="4"/>
       <c r="H748" s="4"/>
     </row>
-    <row r="749" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="4"/>
       <c r="B749" s="4"/>
       <c r="C749" s="4"/>
@@ -8276,7 +8280,7 @@
       <c r="G749" s="4"/>
       <c r="H749" s="4"/>
     </row>
-    <row r="750" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="4"/>
       <c r="B750" s="4"/>
       <c r="C750" s="4"/>
@@ -8286,7 +8290,7 @@
       <c r="G750" s="4"/>
       <c r="H750" s="4"/>
     </row>
-    <row r="751" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="4"/>
       <c r="B751" s="4"/>
       <c r="C751" s="4"/>
@@ -8296,7 +8300,7 @@
       <c r="G751" s="4"/>
       <c r="H751" s="4"/>
     </row>
-    <row r="752" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="4"/>
       <c r="B752" s="4"/>
       <c r="C752" s="4"/>
@@ -8306,7 +8310,7 @@
       <c r="G752" s="4"/>
       <c r="H752" s="4"/>
     </row>
-    <row r="753" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="4"/>
       <c r="B753" s="4"/>
       <c r="C753" s="4"/>
@@ -8316,7 +8320,7 @@
       <c r="G753" s="4"/>
       <c r="H753" s="4"/>
     </row>
-    <row r="754" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="4"/>
       <c r="B754" s="4"/>
       <c r="C754" s="4"/>
@@ -8326,7 +8330,7 @@
       <c r="G754" s="4"/>
       <c r="H754" s="4"/>
     </row>
-    <row r="755" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="4"/>
       <c r="B755" s="4"/>
       <c r="C755" s="4"/>
@@ -8336,7 +8340,7 @@
       <c r="G755" s="4"/>
       <c r="H755" s="4"/>
     </row>
-    <row r="756" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="4"/>
       <c r="B756" s="4"/>
       <c r="C756" s="4"/>
@@ -8346,7 +8350,7 @@
       <c r="G756" s="4"/>
       <c r="H756" s="4"/>
     </row>
-    <row r="757" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="4"/>
       <c r="B757" s="4"/>
       <c r="C757" s="4"/>
@@ -8356,7 +8360,7 @@
       <c r="G757" s="4"/>
       <c r="H757" s="4"/>
     </row>
-    <row r="758" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="4"/>
       <c r="B758" s="4"/>
       <c r="C758" s="4"/>
@@ -8366,7 +8370,7 @@
       <c r="G758" s="4"/>
       <c r="H758" s="4"/>
     </row>
-    <row r="759" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="4"/>
       <c r="B759" s="4"/>
       <c r="C759" s="4"/>
@@ -8376,7 +8380,7 @@
       <c r="G759" s="4"/>
       <c r="H759" s="4"/>
     </row>
-    <row r="760" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="4"/>
       <c r="B760" s="4"/>
       <c r="C760" s="4"/>
@@ -8386,7 +8390,7 @@
       <c r="G760" s="4"/>
       <c r="H760" s="4"/>
     </row>
-    <row r="761" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="4"/>
       <c r="B761" s="4"/>
       <c r="C761" s="4"/>
@@ -8396,7 +8400,7 @@
       <c r="G761" s="4"/>
       <c r="H761" s="4"/>
     </row>
-    <row r="762" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="4"/>
       <c r="B762" s="4"/>
       <c r="C762" s="4"/>
@@ -8406,7 +8410,7 @@
       <c r="G762" s="4"/>
       <c r="H762" s="4"/>
     </row>
-    <row r="763" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="4"/>
       <c r="B763" s="4"/>
       <c r="C763" s="4"/>
@@ -8416,7 +8420,7 @@
       <c r="G763" s="4"/>
       <c r="H763" s="4"/>
     </row>
-    <row r="764" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="4"/>
       <c r="B764" s="4"/>
       <c r="C764" s="4"/>
@@ -8426,7 +8430,7 @@
       <c r="G764" s="4"/>
       <c r="H764" s="4"/>
     </row>
-    <row r="765" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="4"/>
       <c r="B765" s="4"/>
       <c r="C765" s="4"/>
@@ -8436,7 +8440,7 @@
       <c r="G765" s="4"/>
       <c r="H765" s="4"/>
     </row>
-    <row r="766" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="4"/>
       <c r="B766" s="4"/>
       <c r="C766" s="4"/>
@@ -8446,7 +8450,7 @@
       <c r="G766" s="4"/>
       <c r="H766" s="4"/>
     </row>
-    <row r="767" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="4"/>
       <c r="B767" s="4"/>
       <c r="C767" s="4"/>
@@ -8456,7 +8460,7 @@
       <c r="G767" s="4"/>
       <c r="H767" s="4"/>
     </row>
-    <row r="768" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="4"/>
       <c r="B768" s="4"/>
       <c r="C768" s="4"/>
@@ -8466,7 +8470,7 @@
       <c r="G768" s="4"/>
       <c r="H768" s="4"/>
     </row>
-    <row r="769" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="4"/>
       <c r="B769" s="4"/>
       <c r="C769" s="4"/>
@@ -8476,7 +8480,7 @@
       <c r="G769" s="4"/>
       <c r="H769" s="4"/>
     </row>
-    <row r="770" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="4"/>
       <c r="B770" s="4"/>
       <c r="C770" s="4"/>
@@ -8486,7 +8490,7 @@
       <c r="G770" s="4"/>
       <c r="H770" s="4"/>
     </row>
-    <row r="771" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="4"/>
       <c r="B771" s="4"/>
       <c r="C771" s="4"/>
@@ -8496,7 +8500,7 @@
       <c r="G771" s="4"/>
       <c r="H771" s="4"/>
     </row>
-    <row r="772" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="4"/>
       <c r="B772" s="4"/>
       <c r="C772" s="4"/>
@@ -8506,7 +8510,7 @@
       <c r="G772" s="4"/>
       <c r="H772" s="4"/>
     </row>
-    <row r="773" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="4"/>
       <c r="B773" s="4"/>
       <c r="C773" s="4"/>
@@ -8516,7 +8520,7 @@
       <c r="G773" s="4"/>
       <c r="H773" s="4"/>
     </row>
-    <row r="774" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="4"/>
       <c r="B774" s="4"/>
       <c r="C774" s="4"/>
@@ -8526,7 +8530,7 @@
       <c r="G774" s="4"/>
       <c r="H774" s="4"/>
     </row>
-    <row r="775" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="4"/>
       <c r="B775" s="4"/>
       <c r="C775" s="4"/>
@@ -8536,7 +8540,7 @@
       <c r="G775" s="4"/>
       <c r="H775" s="4"/>
     </row>
-    <row r="776" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="4"/>
       <c r="B776" s="4"/>
       <c r="C776" s="4"/>
@@ -8546,7 +8550,7 @@
       <c r="G776" s="4"/>
       <c r="H776" s="4"/>
     </row>
-    <row r="777" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="4"/>
       <c r="B777" s="4"/>
       <c r="C777" s="4"/>
@@ -8556,7 +8560,7 @@
       <c r="G777" s="4"/>
       <c r="H777" s="4"/>
     </row>
-    <row r="778" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="4"/>
       <c r="B778" s="4"/>
       <c r="C778" s="4"/>
@@ -8566,7 +8570,7 @@
       <c r="G778" s="4"/>
       <c r="H778" s="4"/>
     </row>
-    <row r="779" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="4"/>
       <c r="B779" s="4"/>
       <c r="C779" s="4"/>
@@ -8576,7 +8580,7 @@
       <c r="G779" s="4"/>
       <c r="H779" s="4"/>
     </row>
-    <row r="780" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="4"/>
       <c r="B780" s="4"/>
       <c r="C780" s="4"/>
@@ -8586,7 +8590,7 @@
       <c r="G780" s="4"/>
       <c r="H780" s="4"/>
     </row>
-    <row r="781" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="4"/>
       <c r="B781" s="4"/>
       <c r="C781" s="4"/>
@@ -8596,7 +8600,7 @@
       <c r="G781" s="4"/>
       <c r="H781" s="4"/>
     </row>
-    <row r="782" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="4"/>
       <c r="B782" s="4"/>
       <c r="C782" s="4"/>
@@ -8606,7 +8610,7 @@
       <c r="G782" s="4"/>
       <c r="H782" s="4"/>
     </row>
-    <row r="783" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="4"/>
       <c r="B783" s="4"/>
       <c r="C783" s="4"/>
@@ -8616,7 +8620,7 @@
       <c r="G783" s="4"/>
       <c r="H783" s="4"/>
     </row>
-    <row r="784" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="4"/>
       <c r="B784" s="4"/>
       <c r="C784" s="4"/>
@@ -8626,7 +8630,7 @@
       <c r="G784" s="4"/>
       <c r="H784" s="4"/>
     </row>
-    <row r="785" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="4"/>
       <c r="B785" s="4"/>
       <c r="C785" s="4"/>
@@ -8636,7 +8640,7 @@
       <c r="G785" s="4"/>
       <c r="H785" s="4"/>
     </row>
-    <row r="786" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="4"/>
       <c r="B786" s="4"/>
       <c r="C786" s="4"/>
@@ -8646,7 +8650,7 @@
       <c r="G786" s="4"/>
       <c r="H786" s="4"/>
     </row>
-    <row r="787" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="4"/>
       <c r="B787" s="4"/>
       <c r="C787" s="4"/>
@@ -8656,7 +8660,7 @@
       <c r="G787" s="4"/>
       <c r="H787" s="4"/>
     </row>
-    <row r="788" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="4"/>
       <c r="B788" s="4"/>
       <c r="C788" s="4"/>
@@ -8666,7 +8670,7 @@
       <c r="G788" s="4"/>
       <c r="H788" s="4"/>
     </row>
-    <row r="789" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="4"/>
       <c r="B789" s="4"/>
       <c r="C789" s="4"/>
@@ -8676,7 +8680,7 @@
       <c r="G789" s="4"/>
       <c r="H789" s="4"/>
     </row>
-    <row r="790" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="4"/>
       <c r="B790" s="4"/>
       <c r="C790" s="4"/>
@@ -8686,7 +8690,7 @@
       <c r="G790" s="4"/>
       <c r="H790" s="4"/>
     </row>
-    <row r="791" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="4"/>
       <c r="B791" s="4"/>
       <c r="C791" s="4"/>
@@ -8696,7 +8700,7 @@
       <c r="G791" s="4"/>
       <c r="H791" s="4"/>
     </row>
-    <row r="792" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="4"/>
       <c r="B792" s="4"/>
       <c r="C792" s="4"/>
@@ -8706,7 +8710,7 @@
       <c r="G792" s="4"/>
       <c r="H792" s="4"/>
     </row>
-    <row r="793" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="4"/>
       <c r="B793" s="4"/>
       <c r="C793" s="4"/>
@@ -8716,7 +8720,7 @@
       <c r="G793" s="4"/>
       <c r="H793" s="4"/>
     </row>
-    <row r="794" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="4"/>
       <c r="B794" s="4"/>
       <c r="C794" s="4"/>
@@ -8726,7 +8730,7 @@
       <c r="G794" s="4"/>
       <c r="H794" s="4"/>
     </row>
-    <row r="795" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="4"/>
       <c r="B795" s="4"/>
       <c r="C795" s="4"/>
@@ -8736,7 +8740,7 @@
       <c r="G795" s="4"/>
       <c r="H795" s="4"/>
     </row>
-    <row r="796" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="4"/>
       <c r="B796" s="4"/>
       <c r="C796" s="4"/>
@@ -8746,7 +8750,7 @@
       <c r="G796" s="4"/>
       <c r="H796" s="4"/>
     </row>
-    <row r="797" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="4"/>
       <c r="B797" s="4"/>
       <c r="C797" s="4"/>
@@ -8756,7 +8760,7 @@
       <c r="G797" s="4"/>
       <c r="H797" s="4"/>
     </row>
-    <row r="798" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="4"/>
       <c r="B798" s="4"/>
       <c r="C798" s="4"/>
@@ -8766,7 +8770,7 @@
       <c r="G798" s="4"/>
       <c r="H798" s="4"/>
     </row>
-    <row r="799" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="4"/>
       <c r="B799" s="4"/>
       <c r="C799" s="4"/>
@@ -8776,7 +8780,7 @@
       <c r="G799" s="4"/>
       <c r="H799" s="4"/>
     </row>
-    <row r="800" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="4"/>
       <c r="B800" s="4"/>
       <c r="C800" s="4"/>
@@ -8786,7 +8790,7 @@
       <c r="G800" s="4"/>
       <c r="H800" s="4"/>
     </row>
-    <row r="801" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="4"/>
       <c r="B801" s="4"/>
       <c r="C801" s="4"/>
@@ -8796,7 +8800,7 @@
       <c r="G801" s="4"/>
       <c r="H801" s="4"/>
     </row>
-    <row r="802" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="4"/>
       <c r="B802" s="4"/>
       <c r="C802" s="4"/>
@@ -8806,7 +8810,7 @@
       <c r="G802" s="4"/>
       <c r="H802" s="4"/>
     </row>
-    <row r="803" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="4"/>
       <c r="B803" s="4"/>
       <c r="C803" s="4"/>
@@ -8816,7 +8820,7 @@
       <c r="G803" s="4"/>
       <c r="H803" s="4"/>
     </row>
-    <row r="804" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="4"/>
       <c r="B804" s="4"/>
       <c r="C804" s="4"/>
@@ -8826,7 +8830,7 @@
       <c r="G804" s="4"/>
       <c r="H804" s="4"/>
     </row>
-    <row r="805" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="4"/>
       <c r="B805" s="4"/>
       <c r="C805" s="4"/>
@@ -8836,7 +8840,7 @@
       <c r="G805" s="4"/>
       <c r="H805" s="4"/>
     </row>
-    <row r="806" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="4"/>
       <c r="B806" s="4"/>
       <c r="C806" s="4"/>
@@ -8846,7 +8850,7 @@
       <c r="G806" s="4"/>
       <c r="H806" s="4"/>
     </row>
-    <row r="807" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="4"/>
       <c r="B807" s="4"/>
       <c r="C807" s="4"/>
@@ -8856,7 +8860,7 @@
       <c r="G807" s="4"/>
       <c r="H807" s="4"/>
     </row>
-    <row r="808" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="4"/>
       <c r="B808" s="4"/>
       <c r="C808" s="4"/>
@@ -8866,7 +8870,7 @@
       <c r="G808" s="4"/>
       <c r="H808" s="4"/>
     </row>
-    <row r="809" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="4"/>
       <c r="B809" s="4"/>
       <c r="C809" s="4"/>
@@ -8876,7 +8880,7 @@
       <c r="G809" s="4"/>
       <c r="H809" s="4"/>
     </row>
-    <row r="810" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="4"/>
       <c r="B810" s="4"/>
       <c r="C810" s="4"/>
@@ -8886,7 +8890,7 @@
       <c r="G810" s="4"/>
       <c r="H810" s="4"/>
     </row>
-    <row r="811" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="4"/>
       <c r="B811" s="4"/>
       <c r="C811" s="4"/>
@@ -8896,7 +8900,7 @@
       <c r="G811" s="4"/>
       <c r="H811" s="4"/>
     </row>
-    <row r="812" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="4"/>
       <c r="B812" s="4"/>
       <c r="C812" s="4"/>
@@ -8906,7 +8910,7 @@
       <c r="G812" s="4"/>
       <c r="H812" s="4"/>
     </row>
-    <row r="813" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="4"/>
       <c r="B813" s="4"/>
       <c r="C813" s="4"/>
@@ -8916,7 +8920,7 @@
       <c r="G813" s="4"/>
       <c r="H813" s="4"/>
     </row>
-    <row r="814" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="4"/>
       <c r="B814" s="4"/>
       <c r="C814" s="4"/>
@@ -8926,7 +8930,7 @@
       <c r="G814" s="4"/>
       <c r="H814" s="4"/>
     </row>
-    <row r="815" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="4"/>
       <c r="B815" s="4"/>
       <c r="C815" s="4"/>
@@ -8936,7 +8940,7 @@
       <c r="G815" s="4"/>
       <c r="H815" s="4"/>
     </row>
-    <row r="816" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="4"/>
       <c r="B816" s="4"/>
       <c r="C816" s="4"/>
@@ -8946,7 +8950,7 @@
       <c r="G816" s="4"/>
       <c r="H816" s="4"/>
     </row>
-    <row r="817" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="4"/>
       <c r="B817" s="4"/>
       <c r="C817" s="4"/>
@@ -8956,7 +8960,7 @@
       <c r="G817" s="4"/>
       <c r="H817" s="4"/>
     </row>
-    <row r="818" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="4"/>
       <c r="B818" s="4"/>
       <c r="C818" s="4"/>
@@ -8966,7 +8970,7 @@
       <c r="G818" s="4"/>
       <c r="H818" s="4"/>
     </row>
-    <row r="819" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="4"/>
       <c r="B819" s="4"/>
       <c r="C819" s="4"/>
@@ -8976,7 +8980,7 @@
       <c r="G819" s="4"/>
       <c r="H819" s="4"/>
     </row>
-    <row r="820" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="4"/>
       <c r="B820" s="4"/>
       <c r="C820" s="4"/>
@@ -8986,7 +8990,7 @@
       <c r="G820" s="4"/>
       <c r="H820" s="4"/>
     </row>
-    <row r="821" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="4"/>
       <c r="B821" s="4"/>
       <c r="C821" s="4"/>
@@ -8996,7 +9000,7 @@
       <c r="G821" s="4"/>
       <c r="H821" s="4"/>
     </row>
-    <row r="822" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="4"/>
       <c r="B822" s="4"/>
       <c r="C822" s="4"/>
@@ -9006,7 +9010,7 @@
       <c r="G822" s="4"/>
       <c r="H822" s="4"/>
     </row>
-    <row r="823" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="4"/>
       <c r="B823" s="4"/>
       <c r="C823" s="4"/>
@@ -9016,7 +9020,7 @@
       <c r="G823" s="4"/>
       <c r="H823" s="4"/>
     </row>
-    <row r="824" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="4"/>
       <c r="B824" s="4"/>
       <c r="C824" s="4"/>
@@ -9026,7 +9030,7 @@
       <c r="G824" s="4"/>
       <c r="H824" s="4"/>
     </row>
-    <row r="825" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="4"/>
       <c r="B825" s="4"/>
       <c r="C825" s="4"/>
@@ -9036,7 +9040,7 @@
       <c r="G825" s="4"/>
       <c r="H825" s="4"/>
     </row>
-    <row r="826" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="4"/>
       <c r="B826" s="4"/>
       <c r="C826" s="4"/>
@@ -9046,7 +9050,7 @@
       <c r="G826" s="4"/>
       <c r="H826" s="4"/>
     </row>
-    <row r="827" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="4"/>
       <c r="B827" s="4"/>
       <c r="C827" s="4"/>
@@ -9056,7 +9060,7 @@
       <c r="G827" s="4"/>
       <c r="H827" s="4"/>
     </row>
-    <row r="828" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="4"/>
       <c r="B828" s="4"/>
       <c r="C828" s="4"/>
@@ -9066,7 +9070,7 @@
       <c r="G828" s="4"/>
       <c r="H828" s="4"/>
     </row>
-    <row r="829" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="4"/>
       <c r="B829" s="4"/>
       <c r="C829" s="4"/>
@@ -9076,7 +9080,7 @@
       <c r="G829" s="4"/>
       <c r="H829" s="4"/>
     </row>
-    <row r="830" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="4"/>
       <c r="B830" s="4"/>
       <c r="C830" s="4"/>
@@ -9086,7 +9090,7 @@
       <c r="G830" s="4"/>
       <c r="H830" s="4"/>
     </row>
-    <row r="831" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="4"/>
       <c r="B831" s="4"/>
       <c r="C831" s="4"/>
@@ -9096,7 +9100,7 @@
       <c r="G831" s="4"/>
       <c r="H831" s="4"/>
     </row>
-    <row r="832" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="4"/>
       <c r="B832" s="4"/>
       <c r="C832" s="4"/>
@@ -9106,7 +9110,7 @@
       <c r="G832" s="4"/>
       <c r="H832" s="4"/>
     </row>
-    <row r="833" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="4"/>
       <c r="B833" s="4"/>
       <c r="C833" s="4"/>
@@ -9116,7 +9120,7 @@
       <c r="G833" s="4"/>
       <c r="H833" s="4"/>
     </row>
-    <row r="834" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="4"/>
       <c r="B834" s="4"/>
       <c r="C834" s="4"/>
@@ -9126,7 +9130,7 @@
       <c r="G834" s="4"/>
       <c r="H834" s="4"/>
     </row>
-    <row r="835" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="4"/>
       <c r="B835" s="4"/>
       <c r="C835" s="4"/>
@@ -9136,7 +9140,7 @@
       <c r="G835" s="4"/>
       <c r="H835" s="4"/>
     </row>
-    <row r="836" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="4"/>
       <c r="B836" s="4"/>
       <c r="C836" s="4"/>
@@ -9146,7 +9150,7 @@
       <c r="G836" s="4"/>
       <c r="H836" s="4"/>
     </row>
-    <row r="837" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="4"/>
       <c r="B837" s="4"/>
       <c r="C837" s="4"/>
@@ -9156,7 +9160,7 @@
       <c r="G837" s="4"/>
       <c r="H837" s="4"/>
     </row>
-    <row r="838" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="4"/>
       <c r="B838" s="4"/>
       <c r="C838" s="4"/>
@@ -9166,7 +9170,7 @@
       <c r="G838" s="4"/>
       <c r="H838" s="4"/>
     </row>
-    <row r="839" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="4"/>
       <c r="B839" s="4"/>
       <c r="C839" s="4"/>
@@ -9176,7 +9180,7 @@
       <c r="G839" s="4"/>
       <c r="H839" s="4"/>
     </row>
-    <row r="840" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="4"/>
       <c r="B840" s="4"/>
       <c r="C840" s="4"/>
@@ -9186,7 +9190,7 @@
       <c r="G840" s="4"/>
       <c r="H840" s="4"/>
     </row>
-    <row r="841" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="4"/>
       <c r="B841" s="4"/>
       <c r="C841" s="4"/>
@@ -9196,7 +9200,7 @@
       <c r="G841" s="4"/>
       <c r="H841" s="4"/>
     </row>
-    <row r="842" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="4"/>
       <c r="B842" s="4"/>
       <c r="C842" s="4"/>
@@ -9206,7 +9210,7 @@
       <c r="G842" s="4"/>
       <c r="H842" s="4"/>
     </row>
-    <row r="843" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="4"/>
       <c r="B843" s="4"/>
       <c r="C843" s="4"/>
@@ -9216,7 +9220,7 @@
       <c r="G843" s="4"/>
       <c r="H843" s="4"/>
     </row>
-    <row r="844" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="4"/>
       <c r="B844" s="4"/>
       <c r="C844" s="4"/>
@@ -9226,7 +9230,7 @@
       <c r="G844" s="4"/>
       <c r="H844" s="4"/>
     </row>
-    <row r="845" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="4"/>
       <c r="B845" s="4"/>
       <c r="C845" s="4"/>
@@ -9236,7 +9240,7 @@
       <c r="G845" s="4"/>
       <c r="H845" s="4"/>
     </row>
-    <row r="846" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="4"/>
       <c r="B846" s="4"/>
       <c r="C846" s="4"/>
@@ -9246,7 +9250,7 @@
       <c r="G846" s="4"/>
       <c r="H846" s="4"/>
     </row>
-    <row r="847" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="4"/>
       <c r="B847" s="4"/>
       <c r="C847" s="4"/>
@@ -9256,7 +9260,7 @@
       <c r="G847" s="4"/>
       <c r="H847" s="4"/>
     </row>
-    <row r="848" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="4"/>
       <c r="B848" s="4"/>
       <c r="C848" s="4"/>
@@ -9266,7 +9270,7 @@
       <c r="G848" s="4"/>
       <c r="H848" s="4"/>
     </row>
-    <row r="849" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="4"/>
       <c r="B849" s="4"/>
       <c r="C849" s="4"/>
@@ -9276,7 +9280,7 @@
       <c r="G849" s="4"/>
       <c r="H849" s="4"/>
     </row>
-    <row r="850" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="4"/>
       <c r="B850" s="4"/>
       <c r="C850" s="4"/>
@@ -9286,7 +9290,7 @@
       <c r="G850" s="4"/>
       <c r="H850" s="4"/>
     </row>
-    <row r="851" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="4"/>
       <c r="B851" s="4"/>
       <c r="C851" s="4"/>
@@ -9296,7 +9300,7 @@
       <c r="G851" s="4"/>
       <c r="H851" s="4"/>
     </row>
-    <row r="852" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="4"/>
       <c r="B852" s="4"/>
       <c r="C852" s="4"/>
@@ -9306,7 +9310,7 @@
       <c r="G852" s="4"/>
       <c r="H852" s="4"/>
     </row>
-    <row r="853" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="4"/>
       <c r="B853" s="4"/>
       <c r="C853" s="4"/>
@@ -9316,7 +9320,7 @@
       <c r="G853" s="4"/>
       <c r="H853" s="4"/>
     </row>
-    <row r="854" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="4"/>
       <c r="B854" s="4"/>
       <c r="C854" s="4"/>
@@ -9326,7 +9330,7 @@
       <c r="G854" s="4"/>
       <c r="H854" s="4"/>
     </row>
-    <row r="855" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="4"/>
       <c r="B855" s="4"/>
       <c r="C855" s="4"/>
@@ -9336,7 +9340,7 @@
       <c r="G855" s="4"/>
       <c r="H855" s="4"/>
     </row>
-    <row r="856" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="4"/>
       <c r="B856" s="4"/>
       <c r="C856" s="4"/>
@@ -9346,7 +9350,7 @@
       <c r="G856" s="4"/>
       <c r="H856" s="4"/>
     </row>
-    <row r="857" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="4"/>
       <c r="B857" s="4"/>
       <c r="C857" s="4"/>
@@ -9356,7 +9360,7 @@
       <c r="G857" s="4"/>
       <c r="H857" s="4"/>
     </row>
-    <row r="858" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="4"/>
       <c r="B858" s="4"/>
       <c r="C858" s="4"/>
@@ -9366,7 +9370,7 @@
       <c r="G858" s="4"/>
       <c r="H858" s="4"/>
     </row>
-    <row r="859" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="4"/>
       <c r="B859" s="4"/>
       <c r="C859" s="4"/>
@@ -9376,7 +9380,7 @@
       <c r="G859" s="4"/>
       <c r="H859" s="4"/>
     </row>
-    <row r="860" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="4"/>
       <c r="B860" s="4"/>
       <c r="C860" s="4"/>
@@ -9386,7 +9390,7 @@
       <c r="G860" s="4"/>
       <c r="H860" s="4"/>
     </row>
-    <row r="861" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="4"/>
       <c r="B861" s="4"/>
       <c r="C861" s="4"/>
@@ -9396,7 +9400,7 @@
       <c r="G861" s="4"/>
       <c r="H861" s="4"/>
     </row>
-    <row r="862" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="4"/>
       <c r="B862" s="4"/>
       <c r="C862" s="4"/>
@@ -9406,7 +9410,7 @@
       <c r="G862" s="4"/>
       <c r="H862" s="4"/>
     </row>
-    <row r="863" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="4"/>
       <c r="B863" s="4"/>
       <c r="C863" s="4"/>
@@ -9416,7 +9420,7 @@
       <c r="G863" s="4"/>
       <c r="H863" s="4"/>
     </row>
-    <row r="864" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="4"/>
       <c r="B864" s="4"/>
       <c r="C864" s="4"/>
@@ -9426,7 +9430,7 @@
       <c r="G864" s="4"/>
       <c r="H864" s="4"/>
     </row>
-    <row r="865" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="4"/>
       <c r="B865" s="4"/>
       <c r="C865" s="4"/>
@@ -9436,7 +9440,7 @@
       <c r="G865" s="4"/>
       <c r="H865" s="4"/>
     </row>
-    <row r="866" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="4"/>
       <c r="B866" s="4"/>
       <c r="C866" s="4"/>
@@ -9446,7 +9450,7 @@
       <c r="G866" s="4"/>
       <c r="H866" s="4"/>
     </row>
-    <row r="867" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="4"/>
       <c r="B867" s="4"/>
       <c r="C867" s="4"/>
@@ -9456,7 +9460,7 @@
       <c r="G867" s="4"/>
       <c r="H867" s="4"/>
     </row>
-    <row r="868" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="4"/>
       <c r="B868" s="4"/>
       <c r="C868" s="4"/>
@@ -9466,7 +9470,7 @@
       <c r="G868" s="4"/>
       <c r="H868" s="4"/>
     </row>
-    <row r="869" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="4"/>
       <c r="B869" s="4"/>
       <c r="C869" s="4"/>
@@ -9476,7 +9480,7 @@
       <c r="G869" s="4"/>
       <c r="H869" s="4"/>
     </row>
-    <row r="870" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="4"/>
       <c r="B870" s="4"/>
       <c r="C870" s="4"/>
@@ -9486,7 +9490,7 @@
       <c r="G870" s="4"/>
       <c r="H870" s="4"/>
     </row>
-    <row r="871" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="4"/>
       <c r="B871" s="4"/>
       <c r="C871" s="4"/>
@@ -9496,7 +9500,7 @@
       <c r="G871" s="4"/>
       <c r="H871" s="4"/>
     </row>
-    <row r="872" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="4"/>
       <c r="B872" s="4"/>
       <c r="C872" s="4"/>
@@ -9506,7 +9510,7 @@
       <c r="G872" s="4"/>
       <c r="H872" s="4"/>
     </row>
-    <row r="873" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="4"/>
       <c r="B873" s="4"/>
       <c r="C873" s="4"/>
@@ -9516,7 +9520,7 @@
       <c r="G873" s="4"/>
       <c r="H873" s="4"/>
     </row>
-    <row r="874" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="4"/>
       <c r="B874" s="4"/>
       <c r="C874" s="4"/>
@@ -9526,7 +9530,7 @@
       <c r="G874" s="4"/>
       <c r="H874" s="4"/>
     </row>
-    <row r="875" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="4"/>
       <c r="B875" s="4"/>
       <c r="C875" s="4"/>
@@ -9536,7 +9540,7 @@
       <c r="G875" s="4"/>
       <c r="H875" s="4"/>
     </row>
-    <row r="876" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="4"/>
       <c r="B876" s="4"/>
       <c r="C876" s="4"/>
@@ -9546,7 +9550,7 @@
       <c r="G876" s="4"/>
       <c r="H876" s="4"/>
     </row>
-    <row r="877" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="4"/>
       <c r="B877" s="4"/>
       <c r="C877" s="4"/>
@@ -9556,7 +9560,7 @@
       <c r="G877" s="4"/>
       <c r="H877" s="4"/>
     </row>
-    <row r="878" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="4"/>
       <c r="B878" s="4"/>
       <c r="C878" s="4"/>
@@ -9566,7 +9570,7 @@
       <c r="G878" s="4"/>
       <c r="H878" s="4"/>
     </row>
-    <row r="879" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="4"/>
       <c r="B879" s="4"/>
       <c r="C879" s="4"/>
@@ -9576,7 +9580,7 @@
       <c r="G879" s="4"/>
       <c r="H879" s="4"/>
     </row>
-    <row r="880" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="4"/>
       <c r="B880" s="4"/>
       <c r="C880" s="4"/>
@@ -9586,7 +9590,7 @@
       <c r="G880" s="4"/>
       <c r="H880" s="4"/>
     </row>
-    <row r="881" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="4"/>
       <c r="B881" s="4"/>
       <c r="C881" s="4"/>
@@ -9596,7 +9600,7 @@
       <c r="G881" s="4"/>
       <c r="H881" s="4"/>
     </row>
-    <row r="882" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="4"/>
       <c r="B882" s="4"/>
       <c r="C882" s="4"/>
@@ -9606,7 +9610,7 @@
       <c r="G882" s="4"/>
       <c r="H882" s="4"/>
     </row>
-    <row r="883" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="4"/>
       <c r="B883" s="4"/>
       <c r="C883" s="4"/>
@@ -9616,7 +9620,7 @@
       <c r="G883" s="4"/>
       <c r="H883" s="4"/>
     </row>
-    <row r="884" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="4"/>
       <c r="B884" s="4"/>
       <c r="C884" s="4"/>
@@ -9626,7 +9630,7 @@
       <c r="G884" s="4"/>
       <c r="H884" s="4"/>
     </row>
-    <row r="885" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="4"/>
       <c r="B885" s="4"/>
       <c r="C885" s="4"/>
@@ -9636,7 +9640,7 @@
       <c r="G885" s="4"/>
       <c r="H885" s="4"/>
     </row>
-    <row r="886" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="4"/>
       <c r="B886" s="4"/>
       <c r="C886" s="4"/>
@@ -9646,7 +9650,7 @@
       <c r="G886" s="4"/>
       <c r="H886" s="4"/>
     </row>
-    <row r="887" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="4"/>
       <c r="B887" s="4"/>
       <c r="C887" s="4"/>
@@ -9656,7 +9660,7 @@
       <c r="G887" s="4"/>
       <c r="H887" s="4"/>
     </row>
-    <row r="888" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="4"/>
       <c r="B888" s="4"/>
       <c r="C888" s="4"/>
@@ -9666,7 +9670,7 @@
       <c r="G888" s="4"/>
       <c r="H888" s="4"/>
     </row>
-    <row r="889" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="4"/>
       <c r="B889" s="4"/>
       <c r="C889" s="4"/>
@@ -9676,7 +9680,7 @@
       <c r="G889" s="4"/>
       <c r="H889" s="4"/>
     </row>
-    <row r="890" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="4"/>
       <c r="B890" s="4"/>
       <c r="C890" s="4"/>
@@ -9686,7 +9690,7 @@
       <c r="G890" s="4"/>
       <c r="H890" s="4"/>
     </row>
-    <row r="891" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="4"/>
       <c r="B891" s="4"/>
       <c r="C891" s="4"/>
@@ -9696,7 +9700,7 @@
       <c r="G891" s="4"/>
       <c r="H891" s="4"/>
     </row>
-    <row r="892" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="4"/>
       <c r="B892" s="4"/>
       <c r="C892" s="4"/>
@@ -9706,7 +9710,7 @@
       <c r="G892" s="4"/>
       <c r="H892" s="4"/>
     </row>
-    <row r="893" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="4"/>
       <c r="B893" s="4"/>
       <c r="C893" s="4"/>
@@ -9716,7 +9720,7 @@
       <c r="G893" s="4"/>
       <c r="H893" s="4"/>
     </row>
-    <row r="894" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="4"/>
       <c r="B894" s="4"/>
       <c r="C894" s="4"/>
@@ -9726,7 +9730,7 @@
       <c r="G894" s="4"/>
       <c r="H894" s="4"/>
     </row>
-    <row r="895" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="4"/>
       <c r="B895" s="4"/>
       <c r="C895" s="4"/>
@@ -9736,7 +9740,7 @@
       <c r="G895" s="4"/>
       <c r="H895" s="4"/>
     </row>
-    <row r="896" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="4"/>
       <c r="B896" s="4"/>
       <c r="C896" s="4"/>
@@ -9746,7 +9750,7 @@
       <c r="G896" s="4"/>
       <c r="H896" s="4"/>
     </row>
-    <row r="897" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="4"/>
       <c r="B897" s="4"/>
       <c r="C897" s="4"/>
@@ -9756,7 +9760,7 @@
       <c r="G897" s="4"/>
       <c r="H897" s="4"/>
     </row>
-    <row r="898" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="4"/>
       <c r="B898" s="4"/>
       <c r="C898" s="4"/>
@@ -9766,7 +9770,7 @@
       <c r="G898" s="4"/>
       <c r="H898" s="4"/>
     </row>
-    <row r="899" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="4"/>
       <c r="B899" s="4"/>
       <c r="C899" s="4"/>
@@ -9776,7 +9780,7 @@
       <c r="G899" s="4"/>
       <c r="H899" s="4"/>
     </row>
-    <row r="900" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="4"/>
       <c r="B900" s="4"/>
       <c r="C900" s="4"/>
@@ -9786,7 +9790,7 @@
       <c r="G900" s="4"/>
       <c r="H900" s="4"/>
     </row>
-    <row r="901" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="4"/>
       <c r="B901" s="4"/>
       <c r="C901" s="4"/>
@@ -9796,7 +9800,7 @@
       <c r="G901" s="4"/>
       <c r="H901" s="4"/>
     </row>
-    <row r="902" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="4"/>
       <c r="B902" s="4"/>
       <c r="C902" s="4"/>
@@ -9806,7 +9810,7 @@
       <c r="G902" s="4"/>
       <c r="H902" s="4"/>
     </row>
-    <row r="903" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="4"/>
       <c r="B903" s="4"/>
       <c r="C903" s="4"/>
@@ -9816,7 +9820,7 @@
       <c r="G903" s="4"/>
       <c r="H903" s="4"/>
     </row>
-    <row r="904" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="4"/>
       <c r="B904" s="4"/>
       <c r="C904" s="4"/>
@@ -9826,7 +9830,7 @@
       <c r="G904" s="4"/>
       <c r="H904" s="4"/>
     </row>
-    <row r="905" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="4"/>
       <c r="B905" s="4"/>
       <c r="C905" s="4"/>
@@ -9836,7 +9840,7 @@
       <c r="G905" s="4"/>
       <c r="H905" s="4"/>
     </row>
-    <row r="906" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="4"/>
       <c r="B906" s="4"/>
       <c r="C906" s="4"/>
@@ -9846,7 +9850,7 @@
       <c r="G906" s="4"/>
       <c r="H906" s="4"/>
     </row>
-    <row r="907" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="4"/>
       <c r="B907" s="4"/>
       <c r="C907" s="4"/>
@@ -9856,7 +9860,7 @@
       <c r="G907" s="4"/>
       <c r="H907" s="4"/>
     </row>
-    <row r="908" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="4"/>
       <c r="B908" s="4"/>
       <c r="C908" s="4"/>
@@ -9866,7 +9870,7 @@
       <c r="G908" s="4"/>
       <c r="H908" s="4"/>
     </row>
-    <row r="909" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="4"/>
       <c r="B909" s="4"/>
       <c r="C909" s="4"/>
@@ -9876,7 +9880,7 @@
       <c r="G909" s="4"/>
       <c r="H909" s="4"/>
     </row>
-    <row r="910" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="4"/>
       <c r="B910" s="4"/>
       <c r="C910" s="4"/>
@@ -9886,7 +9890,7 @@
       <c r="G910" s="4"/>
       <c r="H910" s="4"/>
     </row>
-    <row r="911" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="4"/>
       <c r="B911" s="4"/>
       <c r="C911" s="4"/>
@@ -9896,7 +9900,7 @@
       <c r="G911" s="4"/>
       <c r="H911" s="4"/>
     </row>
-    <row r="912" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="4"/>
       <c r="B912" s="4"/>
       <c r="C912" s="4"/>
@@ -9906,7 +9910,7 @@
       <c r="G912" s="4"/>
       <c r="H912" s="4"/>
     </row>
-    <row r="913" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="4"/>
       <c r="B913" s="4"/>
       <c r="C913" s="4"/>
@@ -9916,7 +9920,7 @@
       <c r="G913" s="4"/>
       <c r="H913" s="4"/>
     </row>
-    <row r="914" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="4"/>
       <c r="B914" s="4"/>
       <c r="C914" s="4"/>
@@ -9926,7 +9930,7 @@
       <c r="G914" s="4"/>
       <c r="H914" s="4"/>
     </row>
-    <row r="915" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="4"/>
       <c r="B915" s="4"/>
       <c r="C915" s="4"/>
@@ -9936,7 +9940,7 @@
       <c r="G915" s="4"/>
       <c r="H915" s="4"/>
     </row>
-    <row r="916" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="4"/>
       <c r="B916" s="4"/>
       <c r="C916" s="4"/>
@@ -9946,7 +9950,7 @@
       <c r="G916" s="4"/>
       <c r="H916" s="4"/>
     </row>
-    <row r="917" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="4"/>
       <c r="B917" s="4"/>
       <c r="C917" s="4"/>
@@ -9956,7 +9960,7 @@
       <c r="G917" s="4"/>
       <c r="H917" s="4"/>
     </row>
-    <row r="918" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="4"/>
       <c r="B918" s="4"/>
       <c r="C918" s="4"/>
@@ -9966,7 +9970,7 @@
       <c r="G918" s="4"/>
       <c r="H918" s="4"/>
     </row>
-    <row r="919" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="4"/>
       <c r="B919" s="4"/>
       <c r="C919" s="4"/>
@@ -9976,7 +9980,7 @@
       <c r="G919" s="4"/>
       <c r="H919" s="4"/>
     </row>
-    <row r="920" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="4"/>
       <c r="B920" s="4"/>
       <c r="C920" s="4"/>
@@ -9986,7 +9990,7 @@
       <c r="G920" s="4"/>
       <c r="H920" s="4"/>
     </row>
-    <row r="921" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="4"/>
       <c r="B921" s="4"/>
       <c r="C921" s="4"/>
@@ -9996,7 +10000,7 @@
       <c r="G921" s="4"/>
       <c r="H921" s="4"/>
     </row>
-    <row r="922" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="4"/>
       <c r="B922" s="4"/>
       <c r="C922" s="4"/>
@@ -10006,7 +10010,7 @@
       <c r="G922" s="4"/>
       <c r="H922" s="4"/>
     </row>
-    <row r="923" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="4"/>
       <c r="B923" s="4"/>
       <c r="C923" s="4"/>
@@ -10016,7 +10020,7 @@
       <c r="G923" s="4"/>
       <c r="H923" s="4"/>
     </row>
-    <row r="924" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="4"/>
       <c r="B924" s="4"/>
       <c r="C924" s="4"/>
@@ -10026,7 +10030,7 @@
       <c r="G924" s="4"/>
       <c r="H924" s="4"/>
     </row>
-    <row r="925" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="4"/>
       <c r="B925" s="4"/>
       <c r="C925" s="4"/>
@@ -10036,7 +10040,7 @@
       <c r="G925" s="4"/>
       <c r="H925" s="4"/>
     </row>
-    <row r="926" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="4"/>
       <c r="B926" s="4"/>
       <c r="C926" s="4"/>
@@ -10046,7 +10050,7 @@
       <c r="G926" s="4"/>
       <c r="H926" s="4"/>
     </row>
-    <row r="927" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="4"/>
       <c r="B927" s="4"/>
       <c r="C927" s="4"/>
@@ -10056,7 +10060,7 @@
       <c r="G927" s="4"/>
       <c r="H927" s="4"/>
     </row>
-    <row r="928" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="4"/>
       <c r="B928" s="4"/>
       <c r="C928" s="4"/>
@@ -10066,7 +10070,7 @@
       <c r="G928" s="4"/>
       <c r="H928" s="4"/>
     </row>
-    <row r="929" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="4"/>
       <c r="B929" s="4"/>
       <c r="C929" s="4"/>
@@ -10076,7 +10080,7 @@
       <c r="G929" s="4"/>
       <c r="H929" s="4"/>
     </row>
-    <row r="930" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="4"/>
       <c r="B930" s="4"/>
       <c r="C930" s="4"/>
@@ -10086,7 +10090,7 @@
       <c r="G930" s="4"/>
       <c r="H930" s="4"/>
     </row>
-    <row r="931" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="4"/>
       <c r="B931" s="4"/>
       <c r="C931" s="4"/>
@@ -10096,7 +10100,7 @@
       <c r="G931" s="4"/>
       <c r="H931" s="4"/>
     </row>
-    <row r="932" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
       <c r="B932" s="4"/>
       <c r="C932" s="4"/>
@@ -10106,7 +10110,7 @@
       <c r="G932" s="4"/>
       <c r="H932" s="4"/>
     </row>
-    <row r="933" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
       <c r="B933" s="4"/>
       <c r="C933" s="4"/>
@@ -10116,7 +10120,7 @@
       <c r="G933" s="4"/>
       <c r="H933" s="4"/>
     </row>
-    <row r="934" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
       <c r="B934" s="4"/>
       <c r="C934" s="4"/>
@@ -10126,7 +10130,7 @@
       <c r="G934" s="4"/>
       <c r="H934" s="4"/>
     </row>
-    <row r="935" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="4"/>
       <c r="B935" s="4"/>
       <c r="C935" s="4"/>
@@ -10136,7 +10140,7 @@
       <c r="G935" s="4"/>
       <c r="H935" s="4"/>
     </row>
-    <row r="936" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="4"/>
       <c r="B936" s="4"/>
       <c r="C936" s="4"/>
@@ -10146,7 +10150,7 @@
       <c r="G936" s="4"/>
       <c r="H936" s="4"/>
     </row>
-    <row r="937" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="4"/>
       <c r="B937" s="4"/>
       <c r="C937" s="4"/>
@@ -10156,7 +10160,7 @@
       <c r="G937" s="4"/>
       <c r="H937" s="4"/>
     </row>
-    <row r="938" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="4"/>
       <c r="B938" s="4"/>
       <c r="C938" s="4"/>
@@ -10166,7 +10170,7 @@
       <c r="G938" s="4"/>
       <c r="H938" s="4"/>
     </row>
-    <row r="939" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="4"/>
       <c r="B939" s="4"/>
       <c r="C939" s="4"/>
@@ -10176,7 +10180,7 @@
       <c r="G939" s="4"/>
       <c r="H939" s="4"/>
     </row>
-    <row r="940" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="4"/>
       <c r="B940" s="4"/>
       <c r="C940" s="4"/>
@@ -10186,7 +10190,7 @@
       <c r="G940" s="4"/>
       <c r="H940" s="4"/>
     </row>
-    <row r="941" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="4"/>
       <c r="B941" s="4"/>
       <c r="C941" s="4"/>
@@ -10196,7 +10200,7 @@
       <c r="G941" s="4"/>
       <c r="H941" s="4"/>
     </row>
-    <row r="942" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="4"/>
       <c r="B942" s="4"/>
       <c r="C942" s="4"/>
@@ -10206,7 +10210,7 @@
       <c r="G942" s="4"/>
       <c r="H942" s="4"/>
     </row>
-    <row r="943" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="4"/>
       <c r="B943" s="4"/>
       <c r="C943" s="4"/>
@@ -10216,7 +10220,7 @@
       <c r="G943" s="4"/>
       <c r="H943" s="4"/>
     </row>
-    <row r="944" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
       <c r="B944" s="4"/>
       <c r="C944" s="4"/>
@@ -10226,7 +10230,7 @@
       <c r="G944" s="4"/>
       <c r="H944" s="4"/>
     </row>
-    <row r="945" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="4"/>
       <c r="B945" s="4"/>
       <c r="C945" s="4"/>
@@ -10236,7 +10240,7 @@
       <c r="G945" s="4"/>
       <c r="H945" s="4"/>
     </row>
-    <row r="946" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="4"/>
       <c r="B946" s="4"/>
       <c r="C946" s="4"/>
@@ -10246,7 +10250,7 @@
       <c r="G946" s="4"/>
       <c r="H946" s="4"/>
     </row>
-    <row r="947" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="4"/>
       <c r="B947" s="4"/>
       <c r="C947" s="4"/>
@@ -10256,7 +10260,7 @@
       <c r="G947" s="4"/>
       <c r="H947" s="4"/>
     </row>
-    <row r="948" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="4"/>
       <c r="B948" s="4"/>
       <c r="C948" s="4"/>
@@ -10266,7 +10270,7 @@
       <c r="G948" s="4"/>
       <c r="H948" s="4"/>
     </row>
-    <row r="949" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="4"/>
       <c r="B949" s="4"/>
       <c r="C949" s="4"/>
@@ -10276,7 +10280,7 @@
       <c r="G949" s="4"/>
       <c r="H949" s="4"/>
     </row>
-    <row r="950" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="4"/>
       <c r="B950" s="4"/>
       <c r="C950" s="4"/>
@@ -10286,7 +10290,7 @@
       <c r="G950" s="4"/>
       <c r="H950" s="4"/>
     </row>
-    <row r="951" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="4"/>
       <c r="B951" s="4"/>
       <c r="C951" s="4"/>
@@ -10296,7 +10300,7 @@
       <c r="G951" s="4"/>
       <c r="H951" s="4"/>
     </row>
-    <row r="952" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="4"/>
       <c r="B952" s="4"/>
       <c r="C952" s="4"/>
@@ -10306,7 +10310,7 @@
       <c r="G952" s="4"/>
       <c r="H952" s="4"/>
     </row>
-    <row r="953" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="4"/>
       <c r="B953" s="4"/>
       <c r="C953" s="4"/>
@@ -10316,7 +10320,7 @@
       <c r="G953" s="4"/>
       <c r="H953" s="4"/>
     </row>
-    <row r="954" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="4"/>
       <c r="B954" s="4"/>
       <c r="C954" s="4"/>
@@ -10326,7 +10330,7 @@
       <c r="G954" s="4"/>
       <c r="H954" s="4"/>
     </row>
-    <row r="955" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="4"/>
       <c r="B955" s="4"/>
       <c r="C955" s="4"/>
@@ -10336,7 +10340,7 @@
       <c r="G955" s="4"/>
       <c r="H955" s="4"/>
     </row>
-    <row r="956" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="4"/>
       <c r="B956" s="4"/>
       <c r="C956" s="4"/>
@@ -10346,7 +10350,7 @@
       <c r="G956" s="4"/>
       <c r="H956" s="4"/>
     </row>
-    <row r="957" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="4"/>
       <c r="B957" s="4"/>
       <c r="C957" s="4"/>
@@ -10356,7 +10360,7 @@
       <c r="G957" s="4"/>
       <c r="H957" s="4"/>
     </row>
-    <row r="958" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="4"/>
       <c r="B958" s="4"/>
       <c r="C958" s="4"/>
@@ -10366,7 +10370,7 @@
       <c r="G958" s="4"/>
       <c r="H958" s="4"/>
     </row>
-    <row r="959" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="4"/>
       <c r="B959" s="4"/>
       <c r="C959" s="4"/>
@@ -10376,7 +10380,7 @@
       <c r="G959" s="4"/>
       <c r="H959" s="4"/>
     </row>
-    <row r="960" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="4"/>
       <c r="B960" s="4"/>
       <c r="C960" s="4"/>
@@ -10386,7 +10390,7 @@
       <c r="G960" s="4"/>
       <c r="H960" s="4"/>
     </row>
-    <row r="961" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="4"/>
       <c r="B961" s="4"/>
       <c r="C961" s="4"/>
@@ -10396,7 +10400,7 @@
       <c r="G961" s="4"/>
       <c r="H961" s="4"/>
     </row>
-    <row r="962" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="4"/>
       <c r="B962" s="4"/>
       <c r="C962" s="4"/>
@@ -10406,7 +10410,7 @@
       <c r="G962" s="4"/>
       <c r="H962" s="4"/>
     </row>
-    <row r="963" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="4"/>
       <c r="B963" s="4"/>
       <c r="C963" s="4"/>
@@ -10416,7 +10420,7 @@
       <c r="G963" s="4"/>
       <c r="H963" s="4"/>
     </row>
-    <row r="964" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="4"/>
       <c r="B964" s="4"/>
       <c r="C964" s="4"/>
@@ -10426,7 +10430,7 @@
       <c r="G964" s="4"/>
       <c r="H964" s="4"/>
     </row>
-    <row r="965" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="4"/>
       <c r="B965" s="4"/>
       <c r="C965" s="4"/>
@@ -10436,7 +10440,7 @@
       <c r="G965" s="4"/>
       <c r="H965" s="4"/>
     </row>
-    <row r="966" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="4"/>
       <c r="B966" s="4"/>
       <c r="C966" s="4"/>
@@ -10446,7 +10450,7 @@
       <c r="G966" s="4"/>
       <c r="H966" s="4"/>
     </row>
-    <row r="967" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="4"/>
       <c r="B967" s="4"/>
       <c r="C967" s="4"/>
@@ -10456,7 +10460,7 @@
       <c r="G967" s="4"/>
       <c r="H967" s="4"/>
     </row>
-    <row r="968" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="4"/>
       <c r="B968" s="4"/>
       <c r="C968" s="4"/>
@@ -10466,7 +10470,7 @@
       <c r="G968" s="4"/>
       <c r="H968" s="4"/>
     </row>
-    <row r="969" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="4"/>
       <c r="B969" s="4"/>
       <c r="C969" s="4"/>
@@ -10476,7 +10480,7 @@
       <c r="G969" s="4"/>
       <c r="H969" s="4"/>
     </row>
-    <row r="970" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="4"/>
       <c r="B970" s="4"/>
       <c r="C970" s="4"/>
@@ -10486,7 +10490,7 @@
       <c r="G970" s="4"/>
       <c r="H970" s="4"/>
     </row>
-    <row r="971" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="4"/>
       <c r="B971" s="4"/>
       <c r="C971" s="4"/>
@@ -10496,7 +10500,7 @@
       <c r="G971" s="4"/>
       <c r="H971" s="4"/>
     </row>
-    <row r="972" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="4"/>
       <c r="B972" s="4"/>
       <c r="C972" s="4"/>
@@ -10506,7 +10510,7 @@
       <c r="G972" s="4"/>
       <c r="H972" s="4"/>
     </row>
-    <row r="973" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="4"/>
       <c r="B973" s="4"/>
       <c r="C973" s="4"/>
@@ -10516,7 +10520,7 @@
       <c r="G973" s="4"/>
       <c r="H973" s="4"/>
     </row>
-    <row r="974" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="4"/>
       <c r="B974" s="4"/>
       <c r="C974" s="4"/>
@@ -10526,7 +10530,7 @@
       <c r="G974" s="4"/>
       <c r="H974" s="4"/>
     </row>
-    <row r="975" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="4"/>
       <c r="B975" s="4"/>
       <c r="C975" s="4"/>
@@ -10536,7 +10540,7 @@
       <c r="G975" s="4"/>
       <c r="H975" s="4"/>
     </row>
-    <row r="976" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="4"/>
       <c r="B976" s="4"/>
       <c r="C976" s="4"/>
@@ -10546,7 +10550,7 @@
       <c r="G976" s="4"/>
       <c r="H976" s="4"/>
     </row>
-    <row r="977" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="4"/>
       <c r="B977" s="4"/>
       <c r="C977" s="4"/>
@@ -10556,7 +10560,7 @@
       <c r="G977" s="4"/>
       <c r="H977" s="4"/>
     </row>
-    <row r="978" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="4"/>
       <c r="B978" s="4"/>
       <c r="C978" s="4"/>
@@ -10566,7 +10570,7 @@
       <c r="G978" s="4"/>
       <c r="H978" s="4"/>
     </row>
-    <row r="979" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="4"/>
       <c r="B979" s="4"/>
       <c r="C979" s="4"/>
@@ -10576,7 +10580,7 @@
       <c r="G979" s="4"/>
       <c r="H979" s="4"/>
     </row>
-    <row r="980" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="4"/>
       <c r="B980" s="4"/>
       <c r="C980" s="4"/>
@@ -10586,7 +10590,7 @@
       <c r="G980" s="4"/>
       <c r="H980" s="4"/>
     </row>
-    <row r="981" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="4"/>
       <c r="B981" s="4"/>
       <c r="C981" s="4"/>
@@ -10596,7 +10600,7 @@
       <c r="G981" s="4"/>
       <c r="H981" s="4"/>
     </row>
-    <row r="982" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="4"/>
       <c r="B982" s="4"/>
       <c r="C982" s="4"/>
@@ -10606,7 +10610,7 @@
       <c r="G982" s="4"/>
       <c r="H982" s="4"/>
     </row>
-    <row r="983" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="4"/>
       <c r="B983" s="4"/>
       <c r="C983" s="4"/>
@@ -10616,7 +10620,7 @@
       <c r="G983" s="4"/>
       <c r="H983" s="4"/>
     </row>
-    <row r="984" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="4"/>
       <c r="B984" s="4"/>
       <c r="C984" s="4"/>
@@ -10626,7 +10630,7 @@
       <c r="G984" s="4"/>
       <c r="H984" s="4"/>
     </row>
-    <row r="985" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="4"/>
       <c r="B985" s="4"/>
       <c r="C985" s="4"/>
@@ -10636,7 +10640,7 @@
       <c r="G985" s="4"/>
       <c r="H985" s="4"/>
     </row>
-    <row r="986" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="4"/>
       <c r="B986" s="4"/>
       <c r="C986" s="4"/>
@@ -10646,7 +10650,7 @@
       <c r="G986" s="4"/>
       <c r="H986" s="4"/>
     </row>
-    <row r="987" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="4"/>
       <c r="B987" s="4"/>
       <c r="C987" s="4"/>
@@ -10656,7 +10660,7 @@
       <c r="G987" s="4"/>
       <c r="H987" s="4"/>
     </row>
-    <row r="988" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="4"/>
       <c r="B988" s="4"/>
       <c r="C988" s="4"/>
@@ -10666,7 +10670,7 @@
       <c r="G988" s="4"/>
       <c r="H988" s="4"/>
     </row>
-    <row r="989" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="4"/>
       <c r="B989" s="4"/>
       <c r="C989" s="4"/>
@@ -10676,7 +10680,7 @@
       <c r="G989" s="4"/>
       <c r="H989" s="4"/>
     </row>
-    <row r="990" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="4"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
@@ -10686,7 +10690,7 @@
       <c r="G990" s="4"/>
       <c r="H990" s="4"/>
     </row>
-    <row r="991" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="4"/>
       <c r="B991" s="4"/>
       <c r="C991" s="4"/>
@@ -10696,7 +10700,7 @@
       <c r="G991" s="4"/>
       <c r="H991" s="4"/>
     </row>
-    <row r="992" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="4"/>
       <c r="B992" s="4"/>
       <c r="C992" s="4"/>
@@ -10706,7 +10710,7 @@
       <c r="G992" s="4"/>
       <c r="H992" s="4"/>
     </row>
-    <row r="993" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="4"/>
       <c r="B993" s="4"/>
       <c r="C993" s="4"/>
@@ -10716,7 +10720,7 @@
       <c r="G993" s="4"/>
       <c r="H993" s="4"/>
     </row>
-    <row r="994" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="4"/>
       <c r="B994" s="4"/>
       <c r="C994" s="4"/>
@@ -10726,7 +10730,7 @@
       <c r="G994" s="4"/>
       <c r="H994" s="4"/>
     </row>
-    <row r="995" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="4"/>
       <c r="B995" s="4"/>
       <c r="C995" s="4"/>
@@ -10736,7 +10740,7 @@
       <c r="G995" s="4"/>
       <c r="H995" s="4"/>
     </row>
-    <row r="996" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="4"/>
       <c r="B996" s="4"/>
       <c r="C996" s="4"/>
@@ -10746,7 +10750,7 @@
       <c r="G996" s="4"/>
       <c r="H996" s="4"/>
     </row>
-    <row r="997" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="4"/>
       <c r="B997" s="4"/>
       <c r="C997" s="4"/>
@@ -10756,7 +10760,7 @@
       <c r="G997" s="4"/>
       <c r="H997" s="4"/>
     </row>
-    <row r="998" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="4"/>
       <c r="B998" s="4"/>
       <c r="C998" s="4"/>
@@ -10766,7 +10770,7 @@
       <c r="G998" s="4"/>
       <c r="H998" s="4"/>
     </row>
-    <row r="999" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="4"/>
       <c r="B999" s="4"/>
       <c r="C999" s="4"/>
@@ -10776,7 +10780,7 @@
       <c r="G999" s="4"/>
       <c r="H999" s="4"/>
     </row>
-    <row r="1000" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="4"/>
       <c r="B1000" s="4"/>
       <c r="C1000" s="4"/>
